--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namnv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\5_TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFEFECB-B05C-4F37-92DC-566158112161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lịch làm việc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -48,9 +49,6 @@
     <t>Nghỉ</t>
   </si>
   <si>
-    <t>- Đọc tài liệu và làm các phần bài tập cuối chương .Net và Oracle</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">- Bắt đầu nhận thực tập
 </t>
@@ -65,18 +63,24 @@
 - Gửi các phần mềm để cài đặt</t>
     </r>
   </si>
+  <si>
+    <t>- Đọc tài liệu .Net và Oracle. làm các phần bài tập cuối chương các chương 1 - 6  cảu Oracle.</t>
+  </si>
+  <si>
+    <t>- Đọc tài liệu và làm các phần bài tập cuối chương 7-9 của Oracle. Nộp bài tập chương 1-8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd&quot; &quot;mmm"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm"/>
     <numFmt numFmtId="167" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM&quot; &quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -207,16 +211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -229,9 +230,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -246,9 +244,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -259,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,597 +538,597 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="5" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>45571</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1">
+      <c r="D1" s="12"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>C1</f>
         <v>45571</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>C1+1</f>
         <v>45572</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>C1+2</f>
         <v>45573</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>C1+3</f>
         <v>45574</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>C1+4</f>
         <v>45575</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f>C1+5</f>
         <v>45576</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <f>C1+6</f>
         <v>45577</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="C3" s="5" t="str">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:I3" si="0">UPPER(TEXT(C2, "DDDD"))</f>
         <v>SUNDAY</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>MONDAY</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>TUESDAY</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>THURSDAY</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FRIDAY</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SATURDAY</v>
       </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="107.4" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="19" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="107.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="8" spans="1:10" s="17" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>45578</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1">
+      <c r="D8" s="12"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f>C8</f>
         <v>45578</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f>C8+1</f>
         <v>45579</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f>C8+2</f>
         <v>45580</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f>C8+3</f>
         <v>45581</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f>C8+4</f>
         <v>45582</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f>C8+5</f>
         <v>45583</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f>C8+6</f>
         <v>45584</v>
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="C10" s="5" t="str">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="C10" s="4" t="str">
         <f t="shared" ref="C10:I10" si="1">UPPER(TEXT(C9, "DDDD"))</f>
         <v>SUNDAY</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>MONDAY</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>TUESDAY</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>THURSDAY</v>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="H10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRIDAY</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>SATURDAY</v>
       </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="55.2" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="15" spans="1:10" s="17" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="D11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>45585</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="36" customHeight="1">
+      <c r="D15" s="12"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f>C15</f>
         <v>45585</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f>C15+1</f>
         <v>45586</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f>C15+2</f>
         <v>45587</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f>C15+3</f>
         <v>45588</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f>C15+4</f>
         <v>45589</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f>C15+5</f>
         <v>45590</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f>C15+6</f>
         <v>45591</v>
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="C17" s="5" t="str">
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="C17" s="4" t="str">
         <f t="shared" ref="C17:I17" si="2">UPPER(TEXT(C16, "DDDD"))</f>
         <v>SUNDAY</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>MONDAY</v>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="E17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>TUESDAY</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>THURSDAY</v>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="H17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FRIDAY</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SATURDAY</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="22" spans="1:10" s="17" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>45592</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" ht="36" customHeight="1">
+      <c r="D22" s="12"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f>C22</f>
         <v>45592</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f>C22+1</f>
         <v>45593</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f>C22+2</f>
         <v>45594</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f>C22+3</f>
         <v>45595</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f>C22+4</f>
         <v>45596</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f>C22+5</f>
         <v>45597</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f>C22+6</f>
         <v>45598</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="C24" s="5" t="str">
+    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="C24" s="4" t="str">
         <f t="shared" ref="C24:I24" si="3">UPPER(TEXT(C23, "DDDD"))</f>
         <v>SUNDAY</v>
       </c>
-      <c r="D24" s="5" t="str">
+      <c r="D24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>MONDAY</v>
       </c>
-      <c r="E24" s="5" t="str">
+      <c r="E24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>TUESDAY</v>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>THURSDAY</v>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>FRIDAY</v>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="I24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>SATURDAY</v>
       </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="29" spans="1:10" s="17" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>45599</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" ht="36" customHeight="1">
+      <c r="D29" s="12"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f>C29</f>
         <v>45599</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f>C29+1</f>
         <v>45600</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f>C29+2</f>
         <v>45601</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f>C29+3</f>
         <v>45602</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f>C29+4</f>
         <v>45603</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f>C29+5</f>
         <v>45604</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <f>C29+6</f>
         <v>45605</v>
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="C31" s="5" t="str">
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="C31" s="4" t="str">
         <f t="shared" ref="C31:I31" si="4">UPPER(TEXT(C30, "DDDD"))</f>
         <v>SUNDAY</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>MONDAY</v>
       </c>
-      <c r="E31" s="5" t="str">
+      <c r="E31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>TUESDAY</v>
       </c>
-      <c r="F31" s="5" t="str">
+      <c r="F31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="G31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>THURSDAY</v>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="H31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>FRIDAY</v>
       </c>
-      <c r="I31" s="5" t="str">
+      <c r="I31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>SATURDAY</v>
       </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="36" spans="1:10" s="17" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>45606</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:10" ht="36" customHeight="1">
+      <c r="D36" s="12"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f>C36</f>
         <v>45606</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <f>C36+1</f>
         <v>45607</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f>C36+2</f>
         <v>45608</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f>C36+3</f>
         <v>45609</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <f>C36+4</f>
         <v>45610</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <f>C36+5</f>
         <v>45611</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <f>C36+6</f>
         <v>45612</v>
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="C38" s="5" t="str">
+    <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="C38" s="4" t="str">
         <f t="shared" ref="C38:I38" si="5">UPPER(TEXT(C37, "DDDD"))</f>
         <v>SUNDAY</v>
       </c>
-      <c r="D38" s="5" t="str">
+      <c r="D38" s="4" t="str">
         <f t="shared" si="5"/>
         <v>MONDAY</v>
       </c>
-      <c r="E38" s="5" t="str">
+      <c r="E38" s="4" t="str">
         <f t="shared" si="5"/>
         <v>TUESDAY</v>
       </c>
-      <c r="F38" s="5" t="str">
+      <c r="F38" s="4" t="str">
         <f t="shared" si="5"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="G38" s="5" t="str">
+      <c r="G38" s="4" t="str">
         <f t="shared" si="5"/>
         <v>THURSDAY</v>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="H38" s="4" t="str">
         <f t="shared" si="5"/>
         <v>FRIDAY</v>
       </c>
-      <c r="I38" s="5" t="str">
+      <c r="I38" s="4" t="str">
         <f t="shared" si="5"/>
         <v>SATURDAY</v>
       </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\5_TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFEFECB-B05C-4F37-92DC-566158112161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579E7223-15F1-4017-90A3-455F973AC646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>- Đọc tài liệu và làm các phần bài tập cuối chương 7-9 của Oracle. Nộp bài tập chương 1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đọc tài liệu và làm các bài tập cuối chương 1-4 của ASP.Net. Nộp bài tập chương 9 của Oracle, chương 1-3 của ASP.Net.F11  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đọc tài liệu chương 5-6 của ASP.Net. Nộp bài tập chương 5 của ASP.Net. </t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -742,7 +748,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
@@ -751,8 +757,12 @@
       <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\5_TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579E7223-15F1-4017-90A3-455F973AC646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E482A5B7-6B9E-43F3-A2A1-A2CCF4B9B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lịch làm việc" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t xml:space="preserve">Đọc tài liệu chương 5-6 của ASP.Net. Nộp bài tập chương 5 của ASP.Net. </t>
+  </si>
+  <si>
+    <t>Đọc tài liệu và làm bài tập chương 7 của ASP.Net. Tham gia tổ chức 20/10 tại công ty</t>
+  </si>
+  <si>
+    <t>Làm bài Exam 2,Exam3 của Oracle</t>
+  </si>
+  <si>
+    <t>Làm bài Exam 1,Exam 2 cảu Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm Exam 1 của Asp.Net </t>
+  </si>
+  <si>
+    <t>Làm tiếp Exam 1 và làm lại bài tập của Asp.Net</t>
   </si>
 </sst>
 </file>
@@ -550,8 +565,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -763,9 +778,15 @@
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="J11" s="8"/>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -849,16 +870,30 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="J18" s="8"/>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -942,10 +977,12 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\5_TaskList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTS\Fit-thuctap\Fit-thuctap\5_TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E482A5B7-6B9E-43F3-A2A1-A2CCF4B9B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Lịch làm việc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -64,44 +63,49 @@
     </r>
   </si>
   <si>
-    <t>- Đọc tài liệu .Net và Oracle. làm các phần bài tập cuối chương các chương 1 - 6  cảu Oracle.</t>
-  </si>
-  <si>
-    <t>- Đọc tài liệu và làm các phần bài tập cuối chương 7-9 của Oracle. Nộp bài tập chương 1-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đọc tài liệu và làm các bài tập cuối chương 1-4 của ASP.Net. Nộp bài tập chương 9 của Oracle, chương 1-3 của ASP.Net.F11  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đọc tài liệu chương 5-6 của ASP.Net. Nộp bài tập chương 5 của ASP.Net. </t>
-  </si>
-  <si>
-    <t>Đọc tài liệu và làm bài tập chương 7 của ASP.Net. Tham gia tổ chức 20/10 tại công ty</t>
-  </si>
-  <si>
-    <t>Làm bài Exam 2,Exam3 của Oracle</t>
-  </si>
-  <si>
-    <t>Làm bài Exam 1,Exam 2 cảu Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Làm Exam 1 của Asp.Net </t>
-  </si>
-  <si>
-    <t>Làm tiếp Exam 1 và làm lại bài tập của Asp.Net</t>
+    <t>- Đọc tài liệu .Net và Oracle. 
+- Làm các phần bài tập cuối chương: chương 1 - 6  của Oracle.</t>
+  </si>
+  <si>
+    <t>- Đọc tài liệu và làm các phần bài tập cuối chương 7-9 của Oracle. 
+- Nộp bài tập chương 1-8</t>
+  </si>
+  <si>
+    <t>- Đọc tài liệu và làm các bài tập cuối chương 1-4 của ASP.Net. 
+- Nộp bài tập chương 9 của Oracle, chương 1-3 của ASP.Net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Đọc tài liệu chương 5-6 của ASP.Net. 
+- Nộp bài tập chương 5 của ASP.Net. </t>
+  </si>
+  <si>
+    <t>- Đọc tài liệu và làm bài tập chương 7 của ASP.Net. 
+- Tham gia tổ chức 20/10 tại công ty</t>
+  </si>
+  <si>
+    <t>- Làm bài Exam 1, Exam 2 của Oracle</t>
+  </si>
+  <si>
+    <t>- Làm bài Exam 2, Exa m3 của Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Làm Exam 1 của Asp.Net </t>
+  </si>
+  <si>
+    <t>- Làm tiếp Exam 1 và làm lại bài tập của Asp.Net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd&quot; &quot;mmm"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm"/>
     <numFmt numFmtId="167" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM&quot; &quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -559,29 +563,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="5" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -597,7 +601,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="36" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -630,7 +634,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:I3" si="0">UPPER(TEXT(C2, "DDDD"))</f>
@@ -662,7 +666,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="107.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="107.4" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -682,7 +686,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>1</v>
@@ -698,7 +702,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="36" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
@@ -731,7 +735,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="C10" s="4" t="str">
         <f t="shared" ref="C10:I10" si="1">UPPER(TEXT(C9, "DDDD"))</f>
@@ -763,7 +767,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="105.6">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
@@ -772,16 +776,16 @@
       <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -789,7 +793,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
@@ -805,7 +809,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="36" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
@@ -838,7 +842,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="22.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="C17" s="4" t="str">
         <f t="shared" ref="C17:I17" si="2">UPPER(TEXT(C16, "DDDD"))</f>
@@ -870,25 +874,25 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="66.75" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="7" t="s">
@@ -896,7 +900,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>3</v>
@@ -912,7 +916,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="36" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2">
@@ -945,7 +949,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="22.5" customHeight="1">
       <c r="A24" s="3"/>
       <c r="C24" s="4" t="str">
         <f t="shared" ref="C24:I24" si="3">UPPER(TEXT(C23, "DDDD"))</f>
@@ -977,7 +981,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="98.25" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
@@ -991,7 +995,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>4</v>
@@ -1007,7 +1011,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="36" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2">
@@ -1040,7 +1044,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="22.5" customHeight="1">
       <c r="A31" s="3"/>
       <c r="C31" s="4" t="str">
         <f t="shared" ref="C31:I31" si="4">UPPER(TEXT(C30, "DDDD"))</f>
@@ -1072,7 +1076,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -1084,7 +1088,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
@@ -1100,7 +1104,7 @@
       <c r="I36" s="17"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="36" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2">
@@ -1133,7 +1137,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="22.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="C38" s="4" t="str">
         <f t="shared" ref="C38:I38" si="5">UPPER(TEXT(C37, "DDDD"))</f>
@@ -1165,7 +1169,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="22.5" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTS\Fit-thuctap\Fit-thuctap\5_TaskList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\5_TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6729A622-EDF5-461E-9ABB-0C04EC09526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="10920"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lịch làm việc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -94,18 +95,27 @@
   <si>
     <t>- Làm tiếp Exam 1 và làm lại bài tập của Asp.Net</t>
   </si>
+  <si>
+    <t>Xem lại code bài Exam2 Oracle sau khi được người hướng dẫn chữa. Làm bổ xung bài tập cuối chương của Asp.Net.</t>
+  </si>
+  <si>
+    <t>Làm Exam 2 của ASP.Net.  Xem lại bài Exam 1,2 Oracle sau khi người hướng dẫn chữa.</t>
+  </si>
+  <si>
+    <t>Hoạn hiện bổ sung Bài tập cuối chương Asp.Net phần CSS, Js. Xem lại Exam2 Oracle.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd&quot; &quot;mmm"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm"/>
     <numFmt numFmtId="167" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM&quot; &quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -563,29 +573,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="5" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -601,7 +611,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1">
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -634,7 +644,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:I3" si="0">UPPER(TEXT(C2, "DDDD"))</f>
@@ -666,7 +676,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="107.4" customHeight="1">
+    <row r="4" spans="1:10" ht="107.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -686,7 +696,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>1</v>
@@ -702,7 +712,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1">
+    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
@@ -735,7 +745,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="C10" s="4" t="str">
         <f t="shared" ref="C10:I10" si="1">UPPER(TEXT(C9, "DDDD"))</f>
@@ -767,7 +777,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="105.6">
+    <row r="11" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
@@ -793,7 +803,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
@@ -809,7 +819,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" ht="36" customHeight="1">
+    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
@@ -842,7 +852,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1">
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="C17" s="4" t="str">
         <f t="shared" ref="C17:I17" si="2">UPPER(TEXT(C16, "DDDD"))</f>
@@ -874,7 +884,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="66.75" customHeight="1">
+    <row r="18" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
@@ -900,7 +910,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>3</v>
@@ -916,7 +926,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" ht="36" customHeight="1">
+    <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2">
@@ -949,7 +959,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="22.5" customHeight="1">
+    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="C24" s="4" t="str">
         <f t="shared" ref="C24:I24" si="3">UPPER(TEXT(C23, "DDDD"))</f>
@@ -981,21 +991,27 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="98.25" customHeight="1">
+    <row r="25" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>4</v>
@@ -1011,7 +1027,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" ht="36" customHeight="1">
+    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2">
@@ -1044,7 +1060,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="22.5" customHeight="1">
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="C31" s="4" t="str">
         <f t="shared" ref="C31:I31" si="4">UPPER(TEXT(C30, "DDDD"))</f>
@@ -1076,7 +1092,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -1088,7 +1104,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="22.95" customHeight="1">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
@@ -1104,7 +1120,7 @@
       <c r="I36" s="17"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:10" ht="36" customHeight="1">
+    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2">
@@ -1137,7 +1153,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="22.5" customHeight="1">
+    <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="C38" s="4" t="str">
         <f t="shared" ref="C38:I38" si="5">UPPER(TEXT(C37, "DDDD"))</f>
@@ -1169,7 +1185,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="22.5" customHeight="1">
+    <row r="39" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\5_TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6729A622-EDF5-461E-9ABB-0C04EC09526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96593EA2-E58E-470A-A6E5-3C9FED401A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Hoạn hiện bổ sung Bài tập cuối chương Asp.Net phần CSS, Js. Xem lại Exam2 Oracle.</t>
+  </si>
+  <si>
+    <t>Nộp lại exam 2 của oracle. Làm tiệp bài tập cuối chương của Asp.Net</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1006,9 +1009,15 @@
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="J25" s="8"/>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\5_TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96593EA2-E58E-470A-A6E5-3C9FED401A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB809DBC-98F6-40AB-8CF7-25FAEB5446DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Nộp lại exam 2 của oracle. Làm tiệp bài tập cuối chương của Asp.Net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm Exam của Asp.Net Exam 1,2, Nôp bài tập bổ sung cuối chương của Asp.Net </t>
   </si>
 </sst>
 </file>
@@ -582,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1101,11 +1104,15 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\5_TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB809DBC-98F6-40AB-8CF7-25FAEB5446DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE74AE1-C78E-4436-AD9C-678D14BAFED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t xml:space="preserve">Làm Exam của Asp.Net Exam 1,2, Nôp bài tập bổ sung cuối chương của Asp.Net </t>
+  </si>
+  <si>
+    <t>Làm Exam 3 của Asp.Net, Nộp bài tập chương cuối của Asp.Net</t>
+  </si>
+  <si>
+    <t>Xem lại bài cuối chương của Asp.Net sau khi được người hướng dẫn sửa, Xem lại Exam 1-3 của Asp.Net</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1104,7 +1110,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
@@ -1113,9 +1119,15 @@
       <c r="D32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fit-thuctap\5_TaskList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Lịch làm việc" sheetId="1" r:id="rId4"/>
+    <sheet name="Lịch làm việc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Bku39ju67ygIA/Tw97QrrT9IDi60YAXWRMG5nL8PrXA="/>
@@ -16,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -24,20 +32,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
         <rFont val="Roboto"/>
-        <b/>
-        <color rgb="FF555555"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">- Bắt đầu nhận thực tập
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
         <rFont val="Roboto"/>
-        <b val="0"/>
-        <color rgb="FF555555"/>
-        <sz val="10.0"/>
       </rPr>
       <t>- Gửi tài liệu Asp.Net và Sql Oracle
 - Gửi các phần mềm để cài đặt</t>
@@ -125,11 +132,17 @@
   <si>
     <t>Hoàn thành Exam của Asp.Net, Tìm hiểu thêm về WindowsService và WorkerService</t>
   </si>
+  <si>
+    <t>Tìm hiểu thêm về WindowsService và WorkerService</t>
+  </si>
+  <si>
+    <t>Setup máy tính, tìm hiểu qua về Web API</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd&quot; &quot;mmm"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
@@ -138,46 +151,49 @@
   </numFmts>
   <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF555555"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF555555"/>
       <name val="Roboto"/>
     </font>
@@ -187,7 +203,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -203,7 +219,13 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF004D40"/>
@@ -211,26 +233,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -239,16 +270,25 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFD9D9D9"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -259,85 +299,89 @@
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -527,777 +571,787 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.75"/>
-    <col customWidth="1" min="2" max="2" width="14.25"/>
-    <col customWidth="1" min="3" max="3" width="18.88"/>
-    <col customWidth="1" min="4" max="4" width="20.0"/>
-    <col customWidth="1" min="5" max="7" width="18.88"/>
-    <col customWidth="1" min="8" max="8" width="19.75"/>
-    <col customWidth="1" min="9" max="9" width="18.88"/>
-    <col customWidth="1" min="10" max="10" width="2.75"/>
-    <col customWidth="1" min="11" max="26" width="12.75"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="26" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3">
-        <v>45571.0</v>
+        <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
-    <row r="2" ht="36.0" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11">
+    <row r="2" spans="1:26" ht="36" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
         <f>C1</f>
         <v>45571</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <f>C1+1</f>
         <v>45572</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <f>C1+2</f>
         <v>45573</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <f>C1+3</f>
         <v>45574</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <f>C1+4</f>
         <v>45575</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <f>C1+5</f>
         <v>45576</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <f>C1+6</f>
         <v>45577</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="7"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="C3" s="13" t="str">
-        <f t="shared" ref="C3:I3" si="1">UPPER(TEXT(C2, "DDDD"))</f>
-        <v>CHỦ NHẬT</v>
-      </c>
-      <c r="D3" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>THỨ HAI</v>
-      </c>
-      <c r="E3" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>THỨ BA</v>
-      </c>
-      <c r="F3" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>THỨ TƯ</v>
-      </c>
-      <c r="G3" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>THỨ NĂM</v>
-      </c>
-      <c r="H3" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>THỨ SÁU</v>
-      </c>
-      <c r="I3" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>THỨ BẢY</v>
-      </c>
-      <c r="J3" s="12"/>
+    <row r="3" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="C3" s="10" t="str">
+        <f t="shared" ref="C3:I3" si="0">UPPER(TEXT(C2, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SATURDAY</v>
+      </c>
+      <c r="J3" s="9"/>
     </row>
-    <row r="4" ht="107.25" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
+    <row r="4" spans="1:26" ht="107.25" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="16"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="22.5" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:26" ht="22.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>45578.0</v>
+        <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
     </row>
-    <row r="9" ht="36.0" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+    <row r="9" spans="1:26" ht="36" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
         <f>C8</f>
         <v>45578</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <f>C8+1</f>
         <v>45579</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <f>C8+2</f>
         <v>45580</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <f>C8+3</f>
         <v>45581</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <f>C8+4</f>
         <v>45582</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <f>C8+5</f>
         <v>45583</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <f>C8+6</f>
         <v>45584</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="7"/>
     </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="C10" s="13" t="str">
-        <f t="shared" ref="C10:I10" si="2">UPPER(TEXT(C9, "DDDD"))</f>
-        <v>CHỦ NHẬT</v>
-      </c>
-      <c r="D10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>THỨ HAI</v>
-      </c>
-      <c r="E10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>THỨ BA</v>
-      </c>
-      <c r="F10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>THỨ TƯ</v>
-      </c>
-      <c r="G10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>THỨ NĂM</v>
-      </c>
-      <c r="H10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>THỨ SÁU</v>
-      </c>
-      <c r="I10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>THỨ BẢY</v>
-      </c>
-      <c r="J10" s="12"/>
+    <row r="10" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="C10" s="10" t="str">
+        <f t="shared" ref="C10:I10" si="1">UPPER(TEXT(C9, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>SATURDAY</v>
+      </c>
+      <c r="J10" s="9"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="16"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="22.5" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:26" ht="22.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>45585.0</v>
+        <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
-    <row r="16" ht="36.0" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
+    <row r="16" spans="1:26" ht="36" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
         <f>C15</f>
         <v>45585</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <f>C15+1</f>
         <v>45586</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <f>C15+2</f>
         <v>45587</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <f>C15+3</f>
         <v>45588</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <f>C15+4</f>
         <v>45589</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <f>C15+5</f>
         <v>45590</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="8">
         <f>C15+6</f>
         <v>45591</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="7"/>
     </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="C17" s="13" t="str">
-        <f t="shared" ref="C17:I17" si="3">UPPER(TEXT(C16, "DDDD"))</f>
-        <v>CHỦ NHẬT</v>
-      </c>
-      <c r="D17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>THỨ HAI</v>
-      </c>
-      <c r="E17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>THỨ BA</v>
-      </c>
-      <c r="F17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>THỨ TƯ</v>
-      </c>
-      <c r="G17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>THỨ NĂM</v>
-      </c>
-      <c r="H17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>THỨ SÁU</v>
-      </c>
-      <c r="I17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>THỨ BẢY</v>
-      </c>
-      <c r="J17" s="12"/>
+    <row r="17" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="C17" s="10" t="str">
+        <f t="shared" ref="C17:I17" si="2">UPPER(TEXT(C16, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>SATURDAY</v>
+      </c>
+      <c r="J17" s="9"/>
     </row>
-    <row r="18" ht="66.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
+    <row r="18" spans="1:26" ht="66.75" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="16"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="22.5" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:26" ht="22.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3">
-        <v>45592.0</v>
+        <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
     </row>
-    <row r="23" ht="36.0" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11">
+    <row r="23" spans="1:26" ht="36" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8">
         <f>C22</f>
         <v>45592</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <f>C22+1</f>
         <v>45593</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <f>C22+2</f>
         <v>45594</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <f>C22+3</f>
         <v>45595</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <f>C22+4</f>
         <v>45596</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="8">
         <f>C22+5</f>
         <v>45597</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="8">
         <f>C22+6</f>
         <v>45598</v>
       </c>
-      <c r="J23" s="10"/>
+      <c r="J23" s="7"/>
     </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="C24" s="13" t="str">
-        <f t="shared" ref="C24:I24" si="4">UPPER(TEXT(C23, "DDDD"))</f>
-        <v>CHỦ NHẬT</v>
-      </c>
-      <c r="D24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>THỨ HAI</v>
-      </c>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>THỨ BA</v>
-      </c>
-      <c r="F24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>THỨ TƯ</v>
-      </c>
-      <c r="G24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>THỨ NĂM</v>
-      </c>
-      <c r="H24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>THỨ SÁU</v>
-      </c>
-      <c r="I24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>THỨ BẢY</v>
-      </c>
-      <c r="J24" s="12"/>
+    <row r="24" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="C24" s="10" t="str">
+        <f t="shared" ref="C24:I24" si="3">UPPER(TEXT(C23, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>SATURDAY</v>
+      </c>
+      <c r="J24" s="9"/>
     </row>
-    <row r="25" ht="98.25" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16" t="s">
+    <row r="25" spans="1:26" ht="98.25" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="J25" s="16"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="22.5" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:26" ht="22.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3">
-        <v>45599.0</v>
+        <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
     </row>
-    <row r="30" ht="36.0" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11">
+    <row r="30" spans="1:26" ht="36" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8">
         <f>C29</f>
         <v>45599</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <f>C29+1</f>
         <v>45600</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="8">
         <f>C29+2</f>
         <v>45601</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="8">
         <f>C29+3</f>
         <v>45602</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="8">
         <f>C29+4</f>
         <v>45603</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="8">
         <f>C29+5</f>
         <v>45604</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="8">
         <f>C29+6</f>
         <v>45605</v>
       </c>
-      <c r="J30" s="10"/>
+      <c r="J30" s="7"/>
     </row>
-    <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="C31" s="13" t="str">
-        <f t="shared" ref="C31:I31" si="5">UPPER(TEXT(C30, "DDDD"))</f>
-        <v>CHỦ NHẬT</v>
-      </c>
-      <c r="D31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>THỨ HAI</v>
-      </c>
-      <c r="E31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>THỨ BA</v>
-      </c>
-      <c r="F31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>THỨ TƯ</v>
-      </c>
-      <c r="G31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>THỨ NĂM</v>
-      </c>
-      <c r="H31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>THỨ SÁU</v>
-      </c>
-      <c r="I31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>THỨ BẢY</v>
-      </c>
-      <c r="J31" s="12"/>
+    <row r="31" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="C31" s="10" t="str">
+        <f t="shared" ref="C31:I31" si="4">UPPER(TEXT(C30, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>SATURDAY</v>
+      </c>
+      <c r="J31" s="9"/>
     </row>
-    <row r="32" ht="84.75" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16" t="s">
+    <row r="32" spans="1:26" ht="84.75" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="19"/>
+      <c r="J32" s="16"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="22.5" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:26" ht="22.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="3">
-        <v>45606.0</v>
+        <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
     </row>
-    <row r="37" ht="36.0" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11">
+    <row r="37" spans="1:26" ht="36" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8">
         <f>C36</f>
         <v>45606</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <f>C36+1</f>
         <v>45607</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="8">
         <f>C36+2</f>
         <v>45608</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="8">
         <f>C36+3</f>
         <v>45609</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="8">
         <f>C36+4</f>
         <v>45610</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="8">
         <f>C36+5</f>
         <v>45611</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="8">
         <f>C36+6</f>
         <v>45612</v>
       </c>
-      <c r="J37" s="10"/>
+      <c r="J37" s="7"/>
     </row>
-    <row r="38" ht="22.5" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="C38" s="13" t="str">
-        <f t="shared" ref="C38:I38" si="6">UPPER(TEXT(C37, "DDDD"))</f>
-        <v>CHỦ NHẬT</v>
-      </c>
-      <c r="D38" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>THỨ HAI</v>
-      </c>
-      <c r="E38" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>THỨ BA</v>
-      </c>
-      <c r="F38" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>THỨ TƯ</v>
-      </c>
-      <c r="G38" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>THỨ NĂM</v>
-      </c>
-      <c r="H38" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>THỨ SÁU</v>
-      </c>
-      <c r="I38" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>THỨ BẢY</v>
-      </c>
-      <c r="J38" s="12"/>
+    <row r="38" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A38" s="9"/>
+      <c r="C38" s="10" t="str">
+        <f t="shared" ref="C38:I38" si="5">UPPER(TEXT(C37, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E38" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G38" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H38" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>SATURDAY</v>
+      </c>
+      <c r="J38" s="9"/>
     </row>
-    <row r="39" ht="84.0" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="21" t="s">
+    <row r="39" spans="1:26" ht="84" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="19"/>
+      <c r="E39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="16"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2252,16 +2306,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E36:I36"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E36:I36"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -137,6 +137,22 @@
   </si>
   <si>
     <t>Setup máy tính, tìm hiểu qua về Web API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 07
+</t>
+  </si>
+  <si>
+    <t>Làm Worker Service kết nối oracle thực hiện đọc một bảng bất kỳ(JobGrade)</t>
+  </si>
+  <si>
+    <t>Làm WebAPI thực hiện đọc và thêm một bản ghi vào bảng JobGrade</t>
+  </si>
+  <si>
+    <t>Làm Worker Service kết nối oracle thực hiện thêm một bản ghi vào bảng Parafeevsd</t>
+  </si>
+  <si>
+    <t>Người hướng dẫn review exam của Asp.Net. Làm Worker Service kết nối oracle thực hiện thêm một bản ghi vào một bảng bất kỳ(JobGrade)</t>
   </si>
 </sst>
 </file>
@@ -583,8 +599,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -817,7 +833,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="102">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
@@ -1339,18 +1355,122 @@
       <c r="G39" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="H39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:26" ht="42">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45613</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:26" ht="30" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8">
+        <f>C44</f>
+        <v>45613</v>
+      </c>
+      <c r="D45" s="8">
+        <f>C44+1</f>
+        <v>45614</v>
+      </c>
+      <c r="E45" s="8">
+        <f>C44+2</f>
+        <v>45615</v>
+      </c>
+      <c r="F45" s="8">
+        <f>C44+3</f>
+        <v>45616</v>
+      </c>
+      <c r="G45" s="8">
+        <f>C44+4</f>
+        <v>45617</v>
+      </c>
+      <c r="H45" s="8">
+        <f>C44+5</f>
+        <v>45618</v>
+      </c>
+      <c r="I45" s="8">
+        <f>C44+6</f>
+        <v>45619</v>
+      </c>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="9"/>
+      <c r="C46" s="10" t="str">
+        <f t="shared" ref="C46:I46" si="6">UPPER(TEXT(C45, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D46" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F46" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G46" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H46" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I46" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>SATURDAY</v>
+      </c>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:26" ht="89.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="16"/>
+    </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -2305,7 +2425,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E44:I44"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E8:I8"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -153,6 +153,13 @@
   </si>
   <si>
     <t>Người hướng dẫn review exam của Asp.Net. Làm Worker Service kết nối oracle thực hiện thêm một bản ghi vào một bảng bất kỳ(JobGrade)</t>
+  </si>
+  <si>
+    <t>Thử tích hợp API tạo được vào trong bài(lấy được dữ liệu nhưng phần ghi vẫn đang lỗi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 08
+</t>
   </si>
 </sst>
 </file>
@@ -321,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -379,6 +386,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +616,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1237,10 +1256,10 @@
       </c>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="36" spans="1:26" ht="22.5" customHeight="1">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:32" ht="22.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -1272,7 +1291,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" spans="1:26" ht="36" customHeight="1">
+    <row r="37" spans="1:32" ht="36" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8">
@@ -1305,7 +1324,7 @@
       </c>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:26" ht="22.5" customHeight="1">
+    <row r="38" spans="1:32" ht="22.5" customHeight="1">
       <c r="A38" s="9"/>
       <c r="C38" s="10" t="str">
         <f t="shared" ref="C38:I38" si="5">UPPER(TEXT(C37, "DDDD"))</f>
@@ -1337,7 +1356,7 @@
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:26" ht="84" customHeight="1">
+    <row r="39" spans="1:32" ht="84" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="18" t="s">
@@ -1363,11 +1382,11 @@
       </c>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:26" ht="42">
+    <row r="40" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:32" ht="27.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>28</v>
@@ -1383,8 +1402,29 @@
       <c r="I44" s="22"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:26" ht="30" customHeight="1">
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+    </row>
+    <row r="45" spans="1:32" ht="30" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8">
@@ -1417,7 +1457,7 @@
       </c>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+    <row r="46" spans="1:32" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="C46" s="10" t="str">
         <f t="shared" ref="C46:I46" si="6">UPPER(TEXT(C45, "DDDD"))</f>
@@ -1449,7 +1489,7 @@
       </c>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:26" ht="89.25">
+    <row r="47" spans="1:32" ht="89.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="19" t="s">
@@ -1467,27 +1507,128 @@
       <c r="G47" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="H47" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="49" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="50" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:19" ht="30" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="24">
+        <v>45620</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8">
+        <f>C51</f>
+        <v>45620</v>
+      </c>
+      <c r="D52" s="8">
+        <f>C51+1</f>
+        <v>45621</v>
+      </c>
+      <c r="E52" s="8">
+        <f>C51+2</f>
+        <v>45622</v>
+      </c>
+      <c r="F52" s="8">
+        <f>C51+3</f>
+        <v>45623</v>
+      </c>
+      <c r="G52" s="8">
+        <f>C51+4</f>
+        <v>45624</v>
+      </c>
+      <c r="H52" s="8">
+        <f>C51+5</f>
+        <v>45625</v>
+      </c>
+      <c r="I52" s="8">
+        <f>C51+6</f>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="C53" s="10" t="str">
+        <f t="shared" ref="C53:I53" si="7">UPPER(TEXT(C52, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D53" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E53" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F53" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G53" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H53" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I53" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2425,7 +2566,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E1:I1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -160,6 +160,12 @@
   <si>
     <t xml:space="preserve">Tuần: 08
 </t>
+  </si>
+  <si>
+    <t>Tìm hiểu và tạo một BackgroundService (tự động thay đổi trạng thái khi đến thời gian)</t>
+  </si>
+  <si>
+    <t>Tìm hiểu và tạo một BackgroundService (tự động thay đổi trạng thái) sử dụng Quartz để đặt thời gian chạy</t>
   </si>
 </sst>
 </file>
@@ -381,11 +387,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -398,6 +399,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +625,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -644,11 +650,11 @@
         <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -764,11 +770,11 @@
         <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -890,11 +896,11 @@
         <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1016,11 +1022,11 @@
         <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1142,11 +1148,11 @@
         <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1268,11 +1274,11 @@
         <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -1395,11 +1401,11 @@
         <v>45613</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -1520,28 +1526,28 @@
     <row r="50" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="51" spans="1:19" ht="30" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="21">
         <v>45620</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -1606,14 +1612,18 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.75" customHeight="1">
+    <row r="54" spans="1:19" ht="76.5">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
@@ -2567,16 +2577,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="J51:N51"/>
     <mergeCell ref="O51:S51"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Tìm hiểu và tạo một BackgroundService (tự động thay đổi trạng thái) sử dụng Quartz để đặt thời gian chạy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 09
+</t>
+  </si>
+  <si>
+    <t>Đọc code trong EzLoans Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao chép 2 trang (Bán xử lý tài khoản Marpro,  Hoãn bán xử lý theo danh sách) từ 
+EzMargin (TEST) sang EzLoans Test
+</t>
   </si>
 </sst>
 </file>
@@ -396,14 +408,14 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +637,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -650,11 +662,11 @@
         <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -770,11 +782,11 @@
         <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -896,11 +908,11 @@
         <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1022,11 +1034,11 @@
         <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1148,11 +1160,11 @@
         <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1274,11 +1286,11 @@
         <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -1401,11 +1413,11 @@
         <v>45613</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -1533,21 +1545,21 @@
         <v>45620</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -1612,7 +1624,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="76.5">
+    <row r="54" spans="1:19" ht="102">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="19" t="s">
@@ -1624,19 +1636,124 @@
       <c r="E54" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="57" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="58" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:19" ht="30" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="21">
+        <v>45627</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+    </row>
+    <row r="60" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8">
+        <f>C59</f>
+        <v>45627</v>
+      </c>
+      <c r="D60" s="8">
+        <f>C59+1</f>
+        <v>45628</v>
+      </c>
+      <c r="E60" s="8">
+        <f>C59+2</f>
+        <v>45629</v>
+      </c>
+      <c r="F60" s="8">
+        <f>C59+3</f>
+        <v>45630</v>
+      </c>
+      <c r="G60" s="8">
+        <f>C59+4</f>
+        <v>45631</v>
+      </c>
+      <c r="H60" s="8">
+        <f>C59+5</f>
+        <v>45632</v>
+      </c>
+      <c r="I60" s="8">
+        <f>C59+6</f>
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A61" s="9"/>
+      <c r="C61" s="10" t="str">
+        <f t="shared" ref="C61:I61" si="8">UPPER(TEXT(C60, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D61" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E61" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F61" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G61" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H61" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I61" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="12.75">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+    </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
@@ -2576,17 +2693,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:N59"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E36:I36"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -178,6 +178,21 @@
     <t xml:space="preserve">Sao chép 2 trang (Bán xử lý tài khoản Marpro,  Hoãn bán xử lý theo danh sách) từ 
 EzMargin (TEST) sang EzLoans Test
 </t>
+  </si>
+  <si>
+    <t>Đọc code trong EzLoans Test, viết lại hàm btnDelete_Click của trang Hoãn bán xử lý theo danh sách sử dụng API DELETE_DEAL_SELL</t>
+  </si>
+  <si>
+    <t>Viết lại hàm btnDelete_Click của trang Hoãn bán xử lý theo danh sách sử dụng API DELETE_DEAL_SELL</t>
+  </si>
+  <si>
+    <t>Xử dụng API_GET_DEAL_SELL để lấy bản xử lý trong trang Bán xử lý tài khoản Marpro và sử dụng API_GET_DEAL_SELL_DETAIL đẻ lấy thông tin chi tiết</t>
+  </si>
+  <si>
+    <t>nghỉ</t>
+  </si>
+  <si>
+    <t>Thêm hiện số khách hàng nội bộ và chuyển chữ của khách hàng nội bộ thành màu đỏ. Sử dung API_DELETE_DEAL_SELL để xóa và thêm cột đẻ hiện thông báo.Sử dụng API_CUSTOMERINFO_BY_CLIENT để lấy thông tin khách hàng</t>
   </si>
 </sst>
 </file>
@@ -636,8 +651,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -646,8 +661,10 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
     <col min="11" max="26" width="12.7109375" customWidth="1"/>
@@ -1741,17 +1758,27 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="12.75">
+    <row r="62" spans="1:19" ht="127.5">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
+      <c r="D62" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -193,6 +193,13 @@
   </si>
   <si>
     <t>Thêm hiện số khách hàng nội bộ và chuyển chữ của khách hàng nội bộ thành màu đỏ. Sử dung API_DELETE_DEAL_SELL để xóa và thêm cột đẻ hiện thông báo.Sử dụng API_CUSTOMERINFO_BY_CLIENT để lấy thông tin khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 10
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra khách hàng có phải margin pro không. Sử dụng API để điiểu chỉnh số lượng của lệnh bán xử lý</t>
   </si>
 </sst>
 </file>
@@ -423,14 +430,14 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -679,11 +686,11 @@
         <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -799,11 +806,11 @@
         <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -887,7 +894,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="102">
+    <row r="11" spans="1:26" ht="89.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
@@ -925,11 +932,11 @@
         <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1051,11 +1058,11 @@
         <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1177,11 +1184,11 @@
         <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1303,11 +1310,11 @@
         <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -1430,11 +1437,11 @@
         <v>45613</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -1562,21 +1569,21 @@
         <v>45620</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -1679,21 +1686,21 @@
         <v>45627</v>
       </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
@@ -1779,26 +1786,127 @@
       <c r="H62" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I62" s="19"/>
+      <c r="I62" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="65" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="67" spans="1:19" ht="30" customHeight="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="21">
+        <v>45634</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8">
+        <f>C67</f>
+        <v>45634</v>
+      </c>
+      <c r="D68" s="8">
+        <f>C67+1</f>
+        <v>45635</v>
+      </c>
+      <c r="E68" s="8">
+        <f>C67+2</f>
+        <v>45636</v>
+      </c>
+      <c r="F68" s="8">
+        <f>C67+3</f>
+        <v>45637</v>
+      </c>
+      <c r="G68" s="8">
+        <f>C67+4</f>
+        <v>45638</v>
+      </c>
+      <c r="H68" s="8">
+        <f>C67+5</f>
+        <v>45639</v>
+      </c>
+      <c r="I68" s="8">
+        <f>C67+6</f>
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A69" s="9"/>
+      <c r="C69" s="10" t="str">
+        <f t="shared" ref="C69:I69" si="9">UPPER(TEXT(C68, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D69" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E69" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F69" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G69" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H69" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I69" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="76.5">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -2720,13 +2828,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:N59"/>
-    <mergeCell ref="O59:S59"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
+  <mergeCells count="16">
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="O67:S67"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E1:I1"/>
@@ -2734,6 +2839,12 @@
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:N59"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -200,6 +200,13 @@
   </si>
   <si>
     <t>Kiểm tra khách hàng có phải margin pro không. Sử dụng API để điiểu chỉnh số lượng của lệnh bán xử lý</t>
+  </si>
+  <si>
+    <t>Sao chép 2 trang (TRA CỨU TỔNG HỢP TÀI KHOẢN MARPRO) từ 
+EzMargin (TEST) sang EzLoans Test</t>
+  </si>
+  <si>
+    <t>Sử dụng API_ALL_MARP_GET để lấy thông tin. Và sử dung API đẻ lấy thông tin khách hàng. Thêm popup Gói Marp</t>
   </si>
 </sst>
 </file>
@@ -658,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1882,7 +1889,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="76.5">
+    <row r="70" spans="1:19" ht="89.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="19" t="s">
@@ -1891,8 +1898,12 @@
       <c r="D70" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="E70" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Sử dụng API_ALL_MARP_GET để lấy thông tin. Và sử dung API đẻ lấy thông tin khách hàng. Thêm popup Gói Marp</t>
+  </si>
+  <si>
+    <t>Sửa lỗi bị lặp danh sách các trang ở form Default. Sửa lại phần gọi API_ALL_MARP_GET(api summary-search)</t>
   </si>
 </sst>
 </file>
@@ -665,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1904,9 +1907,15 @@
       <c r="F70" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
+      <c r="G70" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="72" spans="1:19" ht="15.75" customHeight="1"/>
@@ -2840,16 +2849,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="J67:N67"/>
     <mergeCell ref="O67:S67"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -186,9 +186,6 @@
     <t>Viết lại hàm btnDelete_Click của trang Hoãn bán xử lý theo danh sách sử dụng API DELETE_DEAL_SELL</t>
   </si>
   <si>
-    <t>Xử dụng API_GET_DEAL_SELL để lấy bản xử lý trong trang Bán xử lý tài khoản Marpro và sử dụng API_GET_DEAL_SELL_DETAIL đẻ lấy thông tin chi tiết</t>
-  </si>
-  <si>
     <t>nghỉ</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>Sửa lỗi bị lặp danh sách các trang ở form Default. Sửa lại phần gọi API_ALL_MARP_GET(api summary-search)</t>
+  </si>
+  <si>
+    <t>Sử dụng API_GET_DEAL_SELL để lấy bản xử lý trong trang Bán xử lý tài khoản Marpro và sử dụng API_GET_DEAL_SELL_DETAIL đẻ lấy thông tin chi tiết</t>
   </si>
 </sst>
 </file>
@@ -440,14 +440,14 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +669,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -696,11 +696,11 @@
         <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -816,11 +816,11 @@
         <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -942,11 +942,11 @@
         <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1068,11 +1068,11 @@
         <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1194,11 +1194,11 @@
         <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1320,11 +1320,11 @@
         <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -1447,11 +1447,11 @@
         <v>45613</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -1579,21 +1579,21 @@
         <v>45620</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -1696,21 +1696,21 @@
         <v>45627</v>
       </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
@@ -1788,16 +1788,16 @@
         <v>41</v>
       </c>
       <c r="F62" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="H62" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H62" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="I62" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1"/>
@@ -1807,27 +1807,27 @@
     <row r="67" spans="1:19" ht="30" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="21">
         <v>45634</v>
       </c>
       <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
@@ -1899,22 +1899,22 @@
         <v>2</v>
       </c>
       <c r="D70" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="F70" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1"/>
@@ -2849,11 +2849,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="J67:N67"/>
     <mergeCell ref="O67:S67"/>
@@ -2865,6 +2860,11 @@
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="J51:N51"/>
     <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -210,6 +210,13 @@
   </si>
   <si>
     <t>Sử dụng API_GET_DEAL_SELL để lấy bản xử lý trong trang Bán xử lý tài khoản Marpro và sử dụng API_GET_DEAL_SELL_DETAIL đẻ lấy thông tin chi tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 11
+</t>
+  </si>
+  <si>
+    <t>Sửa lại giao diện form SummarySearchMarpro. Sửa lại tiếp form Default</t>
   </si>
 </sst>
 </file>
@@ -668,8 +675,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -677,7 +684,7 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
@@ -1921,10 +1928,109 @@
     <row r="72" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="73" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="74" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="75" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="76" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="77" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="78" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:19" ht="30" customHeight="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="21">
+        <v>45641</v>
+      </c>
+      <c r="D75" s="22"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+    </row>
+    <row r="76" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8">
+        <f>C75</f>
+        <v>45641</v>
+      </c>
+      <c r="D76" s="8">
+        <f>C75+1</f>
+        <v>45642</v>
+      </c>
+      <c r="E76" s="8">
+        <f>C75+2</f>
+        <v>45643</v>
+      </c>
+      <c r="F76" s="8">
+        <f>C75+3</f>
+        <v>45644</v>
+      </c>
+      <c r="G76" s="8">
+        <f>C75+4</f>
+        <v>45645</v>
+      </c>
+      <c r="H76" s="8">
+        <f>C75+5</f>
+        <v>45646</v>
+      </c>
+      <c r="I76" s="8">
+        <f>C75+6</f>
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A77" s="9"/>
+      <c r="C77" s="10" t="str">
+        <f t="shared" ref="C77:I77" si="10">UPPER(TEXT(C76, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D77" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E77" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F77" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G77" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H77" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I77" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="51">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+    </row>
     <row r="79" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="80" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
@@ -2848,7 +2954,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="J67:N67"/>
     <mergeCell ref="O67:S67"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -216,7 +216,10 @@
 </t>
   </si>
   <si>
-    <t>Sửa lại giao diện form SummarySearchMarpro. Sửa lại tiếp form Default</t>
+    <t>Sửa lại giao diện form SummarySearchMarpro. Sửa lại tiếp form Default (lỗi khi có 4 subtab)</t>
+  </si>
+  <si>
+    <t>Nghỉ sáng. Sửa lại phần hiện thị popup của trang SummarySearchMarproHis. Sửa lại của form Default.</t>
   </si>
 </sst>
 </file>
@@ -675,21 +678,21 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
     <col min="11" max="26" width="12.7109375" customWidth="1"/>
   </cols>
@@ -2016,7 +2019,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="51">
+    <row r="78" spans="1:19" ht="76.5">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="19" t="s">
@@ -2025,7 +2028,9 @@
       <c r="D78" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E78" s="19"/>
+      <c r="E78" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Nghỉ sáng. Sửa lại phần hiện thị popup của trang SummarySearchMarproHis. Sửa lại của form Default.</t>
+  </si>
+  <si>
+    <t>Tạo API loans marp cho account đối chiếu cuối ngày</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2031,8 +2034,12 @@
       <c r="E78" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+      <c r="F78" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Tạo API loans marp cho account đối chiếu cuối ngày</t>
+  </si>
+  <si>
+    <t>Thêm 2 trang danh sách tài khoản tất toán và sao kê marpro vào EzLoansTest(copy từ EzMargin Test) chuyển các phần sử dụng sp sang dùng API</t>
+  </si>
+  <si>
+    <t>Tìm các sp được sử dụng và được dùng để làm gì của các trang của mục Chạy hệ thống của EzMargin test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tiếp tục tìm các sp được sử dụng và được dùng để làm gì của các trang của mục Chạy hệ thống của EzMargin test. Thêm trang DetailsSearchMarpro vào EzLoans test </t>
+  </si>
+  <si>
+    <t>Bỏ cột 'Tiền treo mua' thêm cột 'Tiên treo hạn mức' của form tra cứu tổng hợp TK</t>
   </si>
 </sst>
 </file>
@@ -681,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -693,7 +705,7 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
@@ -2022,7 +2034,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="76.5">
+    <row r="78" spans="1:19" ht="89.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="19" t="s">
@@ -2040,27 +2052,134 @@
       <c r="G78" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
+      <c r="H78" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="79" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="80" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="81" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="82" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="83" spans="1:19" ht="30" customHeight="1">
+      <c r="A83" s="1"/>
+      <c r="B83" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="21">
+        <v>45648</v>
+      </c>
+      <c r="D83" s="22"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+    </row>
+    <row r="84" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8">
+        <f>C83</f>
+        <v>45648</v>
+      </c>
+      <c r="D84" s="8">
+        <f>C83+1</f>
+        <v>45649</v>
+      </c>
+      <c r="E84" s="8">
+        <f>C83+2</f>
+        <v>45650</v>
+      </c>
+      <c r="F84" s="8">
+        <f>C83+3</f>
+        <v>45651</v>
+      </c>
+      <c r="G84" s="8">
+        <f>C83+4</f>
+        <v>45652</v>
+      </c>
+      <c r="H84" s="8">
+        <f>C83+5</f>
+        <v>45653</v>
+      </c>
+      <c r="I84" s="8">
+        <f>C83+6</f>
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A85" s="9"/>
+      <c r="C85" s="10" t="str">
+        <f t="shared" ref="C85:I85" si="11">UPPER(TEXT(C84, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D85" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E85" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F85" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G85" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H85" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I85" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="102">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+    </row>
+    <row r="87" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -2966,10 +3085,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="E75:I75"/>
     <mergeCell ref="J75:N75"/>
     <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="J67:N67"/>
     <mergeCell ref="O67:S67"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -236,6 +236,16 @@
   <si>
     <t>Bỏ cột 'Tiền treo mua' thêm cột 'Tiên treo hạn mức' của form tra cứu tổng hợp TK</t>
   </si>
+  <si>
+    <t>Thêm form DetailsSearchMarproHis. SummarySearchMarproHis vào EzLoans Test mục báo cáo(đổi từ sử dụng sp sang API)</t>
+  </si>
+  <si>
+    <t>Tìm các sp được sử dụng và dùng để làm gì cảu các trang trong mục hạn mức của EzMargin Test. Thêm trang điều chỉnh hạn mức theo danh sách (mới được giáo diện)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 12
+</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +257,7 @@
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm"/>
     <numFmt numFmtId="167" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM&quot; &quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -294,6 +304,12 @@
       <sz val="10"/>
       <color rgb="FF555555"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -403,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -472,6 +488,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2166,18 +2185,121 @@
       <c r="F86" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
+      <c r="G86" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="88" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="89" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="90" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="91" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="92" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="93" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="94" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:19" ht="30" customHeight="1">
+      <c r="A91" s="1"/>
+      <c r="B91" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="21">
+        <v>45655</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+    </row>
+    <row r="92" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="8">
+        <f>C91</f>
+        <v>45655</v>
+      </c>
+      <c r="D92" s="8">
+        <f>C91+1</f>
+        <v>45656</v>
+      </c>
+      <c r="E92" s="8">
+        <f>C91+2</f>
+        <v>45657</v>
+      </c>
+      <c r="F92" s="8">
+        <f>C91+3</f>
+        <v>45658</v>
+      </c>
+      <c r="G92" s="8">
+        <f>C91+4</f>
+        <v>45659</v>
+      </c>
+      <c r="H92" s="8">
+        <f>C91+5</f>
+        <v>45660</v>
+      </c>
+      <c r="I92" s="8">
+        <f>C91+6</f>
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A93" s="9"/>
+      <c r="C93" s="10" t="str">
+        <f t="shared" ref="C93:I93" si="12">UPPER(TEXT(C92, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D93" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E93" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F93" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G93" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H93" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I93" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="12.75">
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+    </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="96" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
@@ -3085,7 +3207,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
     <mergeCell ref="E75:I75"/>
     <mergeCell ref="J75:N75"/>
     <mergeCell ref="O75:S75"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -245,6 +245,18 @@
   <si>
     <t xml:space="preserve">Tuần: 12
 </t>
+  </si>
+  <si>
+    <t>Thêm trang điều chỉnh hạn mức theo danh sách (làm các chức năng import, cập nhật, làm mới)</t>
+  </si>
+  <si>
+    <t>Sửa lỗi kiểm tra định dạng dữ liệu trong file import, gửi thông báo lên Topics</t>
+  </si>
+  <si>
+    <t>Thêm check file rỗng, không có dữ liệu, không có Header, sửa lỗi đọc cả các dòng thay đôi format. Nghỉ chiều..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm tra và sửa lại, đẩy code lên. Thêm check thêm file lỗi mà vẫn nhân cập nhật, </t>
   </si>
 </sst>
 </file>
@@ -268,10 +280,12 @@
       <sz val="16"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -481,17 +495,17 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -740,10 +754,10 @@
         <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="25"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
@@ -860,10 +874,10 @@
         <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="25"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -986,10 +1000,10 @@
         <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="25"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
@@ -1112,10 +1126,10 @@
         <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="25"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
@@ -1238,10 +1252,10 @@
         <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="25"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
@@ -1364,10 +1378,10 @@
         <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="25"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
@@ -1491,10 +1505,10 @@
         <v>45613</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="25"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
@@ -1585,7 +1599,7 @@
       </c>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:32" ht="89.25">
+    <row r="47" spans="1:32" ht="76.5">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="19" t="s">
@@ -1623,17 +1637,17 @@
         <v>45620</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="26"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="J51" s="24"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
       <c r="N51" s="25"/>
-      <c r="O51" s="26"/>
+      <c r="O51" s="24"/>
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
@@ -1740,17 +1754,17 @@
         <v>45627</v>
       </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="26"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
+      <c r="J59" s="24"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
       <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
+      <c r="O59" s="24"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="25"/>
       <c r="R59" s="25"/>
@@ -1857,17 +1871,17 @@
         <v>45634</v>
       </c>
       <c r="D67" s="22"/>
-      <c r="E67" s="26"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="J67" s="24"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
       <c r="N67" s="25"/>
-      <c r="O67" s="26"/>
+      <c r="O67" s="24"/>
       <c r="P67" s="25"/>
       <c r="Q67" s="25"/>
       <c r="R67" s="25"/>
@@ -1974,17 +1988,17 @@
         <v>45641</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="26"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="J75" s="24"/>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
-      <c r="O75" s="26"/>
+      <c r="O75" s="24"/>
       <c r="P75" s="25"/>
       <c r="Q75" s="25"/>
       <c r="R75" s="25"/>
@@ -2091,17 +2105,17 @@
         <v>45648</v>
       </c>
       <c r="D83" s="22"/>
-      <c r="E83" s="26"/>
+      <c r="E83" s="24"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="26"/>
+      <c r="J83" s="24"/>
       <c r="K83" s="25"/>
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
       <c r="N83" s="25"/>
-      <c r="O83" s="26"/>
+      <c r="O83" s="24"/>
       <c r="P83" s="25"/>
       <c r="Q83" s="25"/>
       <c r="R83" s="25"/>
@@ -2201,24 +2215,24 @@
     <row r="90" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="91" spans="1:19" ht="30" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="21">
         <v>45655</v>
       </c>
       <c r="D91" s="22"/>
-      <c r="E91" s="26"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="26"/>
+      <c r="J91" s="24"/>
       <c r="K91" s="25"/>
       <c r="L91" s="25"/>
       <c r="M91" s="25"/>
       <c r="N91" s="25"/>
-      <c r="O91" s="26"/>
+      <c r="O91" s="24"/>
       <c r="P91" s="25"/>
       <c r="Q91" s="25"/>
       <c r="R91" s="25"/>
@@ -2287,18 +2301,30 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="12.75">
+    <row r="94" spans="1:19" ht="63.75">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
       <c r="C94" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
+      <c r="D94" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="96" spans="1:19" ht="15.75" customHeight="1"/>
@@ -3208,15 +3234,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="J67:N67"/>
     <mergeCell ref="O67:S67"/>
@@ -3228,13 +3250,17 @@
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="J51:N51"/>
     <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -257,6 +257,25 @@
   </si>
   <si>
     <t xml:space="preserve">kiểm tra và sửa lại, đẩy code lên. Thêm check thêm file lỗi mà vẫn nhân cập nhật, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 13
+</t>
+  </si>
+  <si>
+    <t>Đọc qua code của EzProcessing</t>
+  </si>
+  <si>
+    <t>Clone code EzProcessing và chạy trên trên máy mình. Làm giao diện cho form chạy Chạy EOD - MarginPro</t>
+  </si>
+  <si>
+    <t>Sử lý khi nhân làm mới thì bỏ checkbox và trở lại trạng thái PENDING và khi nhấn run thì chạy và hiện thị kết quả lần luột và tương ứng</t>
+  </si>
+  <si>
+    <t>Tông hợp và thống kê các api và sp sử dụng của các trang mục Chạy hệ thống và Báo cáo</t>
+  </si>
+  <si>
+    <t>Tông hợp và thống kê các api và sp sử dụng của các trang mục Chạy hệ thống và Báo cáo.</t>
   </si>
 </sst>
 </file>
@@ -498,14 +517,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -754,11 +773,11 @@
         <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="25"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -874,11 +893,11 @@
         <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1000,11 +1019,11 @@
         <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1126,11 +1145,11 @@
         <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1252,11 +1271,11 @@
         <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1378,11 +1397,11 @@
         <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="25"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -1505,11 +1524,11 @@
         <v>45613</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="25"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -1637,21 +1656,21 @@
         <v>45620</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -1754,21 +1773,21 @@
         <v>45627</v>
       </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
@@ -1871,21 +1890,21 @@
         <v>45634</v>
       </c>
       <c r="D67" s="22"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
@@ -1988,21 +2007,21 @@
         <v>45641</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="25"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:19" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
@@ -2105,21 +2124,21 @@
         <v>45648</v>
       </c>
       <c r="D83" s="22"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="25"/>
-      <c r="S83" s="25"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
@@ -2222,21 +2241,21 @@
         <v>45655</v>
       </c>
       <c r="D91" s="22"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
-      <c r="S91" s="25"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" ht="15.75" customHeight="1">
       <c r="A92" s="7"/>
@@ -2328,22 +2347,131 @@
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="96" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="97" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="98" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="99" spans="1:19" ht="30" customHeight="1">
+      <c r="A99" s="1"/>
+      <c r="B99" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="21">
+        <v>45662</v>
+      </c>
+      <c r="D99" s="22"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
+    </row>
+    <row r="100" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8">
+        <f>C99</f>
+        <v>45662</v>
+      </c>
+      <c r="D100" s="8">
+        <f>C99+1</f>
+        <v>45663</v>
+      </c>
+      <c r="E100" s="8">
+        <f>C99+2</f>
+        <v>45664</v>
+      </c>
+      <c r="F100" s="8">
+        <f>C99+3</f>
+        <v>45665</v>
+      </c>
+      <c r="G100" s="8">
+        <f>C99+4</f>
+        <v>45666</v>
+      </c>
+      <c r="H100" s="8">
+        <f>C99+5</f>
+        <v>45667</v>
+      </c>
+      <c r="I100" s="8">
+        <f>C99+6</f>
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A101" s="9"/>
+      <c r="C101" s="10" t="str">
+        <f t="shared" ref="C101:I101" si="13">UPPER(TEXT(C100, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D101" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E101" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F101" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G101" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H101" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I101" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="89.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="104" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="105" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="106" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="107" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="109" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="110" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="111" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="112" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -3233,12 +3361,19 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E29:I29"/>
+  <mergeCells count="28">
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="J67:N67"/>
     <mergeCell ref="O67:S67"/>
@@ -3250,15 +3385,11 @@
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="J51:N51"/>
     <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -269,13 +269,29 @@
     <t>Clone code EzProcessing và chạy trên trên máy mình. Làm giao diện cho form chạy Chạy EOD - MarginPro</t>
   </si>
   <si>
-    <t>Sử lý khi nhân làm mới thì bỏ checkbox và trở lại trạng thái PENDING và khi nhấn run thì chạy và hiện thị kết quả lần luột và tương ứng</t>
-  </si>
-  <si>
     <t>Tông hợp và thống kê các api và sp sử dụng của các trang mục Chạy hệ thống và Báo cáo</t>
   </si>
   <si>
     <t>Tông hợp và thống kê các api và sp sử dụng của các trang mục Chạy hệ thống và Báo cáo.</t>
+  </si>
+  <si>
+    <t>Sử lý khi nhân làm mới thì bỏ checkbox và trở lại trạng thái PENDING và khi nhấn run thì chạy và hiện thị kết quả lần luột và tương ứng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 14
+</t>
+  </si>
+  <si>
+    <t>Xây dựng hàm gọi API với các phương thức còn lại. Bắt các trường hợp lỗi. Chỉnh lại giao diện trang.</t>
+  </si>
+  <si>
+    <t>Sửa lại lỗi và tinh chỉnh lại code của form RunEodMarp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiềm hiểu về Markdown và viết lại tổng hợp thông kê các Api và Sp sử dụng của các mục Chạy hệ thống và Báo cáo bằng Markdown . </t>
+  </si>
+  <si>
+    <t>Nghỉ sáng .Làm giáo diện trang ApiRequestTool và xậy dụng hàm gọi Api phương thức GET và hiện dưới dạng Json</t>
   </si>
 </sst>
 </file>
@@ -746,7 +762,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+      <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -757,7 +773,7 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
@@ -2450,13 +2466,13 @@
         <v>67</v>
       </c>
       <c r="F102" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G102" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="H102" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="I102" s="19" t="s">
         <v>42</v>
@@ -2467,10 +2483,115 @@
     <row r="105" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="106" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="107" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="108" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="109" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="110" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="111" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:19" ht="30" customHeight="1">
+      <c r="A108" s="1"/>
+      <c r="B108" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="21">
+        <v>45669</v>
+      </c>
+      <c r="D108" s="22"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+    </row>
+    <row r="109" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8">
+        <f>C108</f>
+        <v>45669</v>
+      </c>
+      <c r="D109" s="8">
+        <f>C108+1</f>
+        <v>45670</v>
+      </c>
+      <c r="E109" s="8">
+        <f>C108+2</f>
+        <v>45671</v>
+      </c>
+      <c r="F109" s="8">
+        <f>C108+3</f>
+        <v>45672</v>
+      </c>
+      <c r="G109" s="8">
+        <f>C108+4</f>
+        <v>45673</v>
+      </c>
+      <c r="H109" s="8">
+        <f>C108+5</f>
+        <v>45674</v>
+      </c>
+      <c r="I109" s="8">
+        <f>C108+6</f>
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A110" s="9"/>
+      <c r="C110" s="10" t="str">
+        <f t="shared" ref="C110:I110" si="14">UPPER(TEXT(C109, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D110" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E110" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F110" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G110" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H110" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I110" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="89.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+    </row>
     <row r="112" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
@@ -3361,10 +3482,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="31">
     <mergeCell ref="E99:I99"/>
     <mergeCell ref="J99:N99"/>
     <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
     <mergeCell ref="E91:I91"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="O91:S91"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -292,6 +292,16 @@
   </si>
   <si>
     <t>Nghỉ sáng .Làm giáo diện trang ApiRequestTool và xậy dụng hàm gọi Api phương thức GET và hiện dưới dạng Json</t>
+  </si>
+  <si>
+    <t>Đọc và tinh chỉnh lại code các form đã làm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 15
+</t>
+  </si>
+  <si>
+    <t>Tiềm hiểu về cách cào dữ liệu từ trang web khác bằng cách đọc html.</t>
   </si>
 </sst>
 </file>
@@ -533,14 +543,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,8 +771,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="O106" sqref="O106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -789,11 +799,11 @@
         <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -909,11 +919,11 @@
         <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1035,11 +1045,11 @@
         <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1161,11 +1171,11 @@
         <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1287,11 +1297,11 @@
         <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1413,11 +1423,11 @@
         <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -1540,11 +1550,11 @@
         <v>45613</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -1672,21 +1682,21 @@
         <v>45620</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -1789,21 +1799,21 @@
         <v>45627</v>
       </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
@@ -1906,21 +1916,21 @@
         <v>45634</v>
       </c>
       <c r="D67" s="22"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="26"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
@@ -2023,21 +2033,21 @@
         <v>45641</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="26"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
     </row>
     <row r="76" spans="1:19" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
@@ -2140,21 +2150,21 @@
         <v>45648</v>
       </c>
       <c r="D83" s="22"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
@@ -2257,21 +2267,21 @@
         <v>45655</v>
       </c>
       <c r="D91" s="22"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="26"/>
-      <c r="S91" s="26"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
     </row>
     <row r="92" spans="1:19" ht="15.75" customHeight="1">
       <c r="A92" s="7"/>
@@ -2374,21 +2384,21 @@
         <v>45662</v>
       </c>
       <c r="D99" s="22"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="26"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="27"/>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="26"/>
-      <c r="S99" s="26"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
     </row>
     <row r="100" spans="1:19" ht="15.75" customHeight="1">
       <c r="A100" s="7"/>
@@ -2492,21 +2502,21 @@
         <v>45669</v>
       </c>
       <c r="D108" s="22"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="27"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="15.75" customHeight="1">
       <c r="A109" s="7"/>
@@ -2589,26 +2599,137 @@
       <c r="G111" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
+      <c r="H111" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="113" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="114" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="115" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="116" spans="1:19" ht="30" customHeight="1">
+      <c r="A116" s="1"/>
+      <c r="B116" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="21">
+        <v>45676</v>
+      </c>
+      <c r="D116" s="22"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="24"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="25"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="25"/>
+    </row>
+    <row r="117" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8">
+        <f>C116</f>
+        <v>45676</v>
+      </c>
+      <c r="D117" s="8">
+        <f>C116+1</f>
+        <v>45677</v>
+      </c>
+      <c r="E117" s="8">
+        <f>C116+2</f>
+        <v>45678</v>
+      </c>
+      <c r="F117" s="8">
+        <f>C116+3</f>
+        <v>45679</v>
+      </c>
+      <c r="G117" s="8">
+        <f>C116+4</f>
+        <v>45680</v>
+      </c>
+      <c r="H117" s="8">
+        <f>C116+5</f>
+        <v>45681</v>
+      </c>
+      <c r="I117" s="8">
+        <f>C116+6</f>
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A118" s="9"/>
+      <c r="C118" s="10" t="str">
+        <f t="shared" ref="C118:I118" si="15">UPPER(TEXT(C117, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D118" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E118" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F118" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G118" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H118" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I118" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="51">
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="121" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="122" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="123" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="124" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="125" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="126" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="127" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="128" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -3482,22 +3603,15 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
+  <mergeCells count="34">
+    <mergeCell ref="E116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="O116:S116"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="J67:N67"/>
     <mergeCell ref="O67:S67"/>
@@ -3509,11 +3623,21 @@
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="J51:N51"/>
     <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -301,7 +301,30 @@
 </t>
   </si>
   <si>
-    <t>Tiềm hiểu về cách cào dữ liệu từ trang web khác bằng cách đọc html.</t>
+    <t>Tiềm hiểu về cách cào dữ liệu từ trang web khác bằng cách đọc html. Tìm hiểu về CrystalReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 17
+</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về Vue.js. Chỉnh lại form SendMessToAsset chọn địa chỉ BootstrapServer (FOX, LLQ)</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về Vue.js.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về Vue.js. Về component</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về Vue.js, Về hiệu ứng chuyển động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu về Vue.js. Về component </t>
   </si>
 </sst>
 </file>
@@ -771,8 +794,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2698,7 +2721,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="51">
+    <row r="119" spans="1:19" ht="63.75">
       <c r="A119" s="11"/>
       <c r="B119" s="12"/>
       <c r="C119" s="19" t="s">
@@ -2707,7 +2730,9 @@
       <c r="D119" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E119" s="19"/>
+      <c r="E119" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="F119" s="19" t="s">
         <v>2</v>
       </c>
@@ -2724,28 +2749,246 @@
     <row r="120" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="121" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="122" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="123" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="124" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="125" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="126" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="123" spans="1:19" ht="30" customHeight="1">
+      <c r="A123" s="1"/>
+      <c r="B123" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" s="21">
+        <v>45683</v>
+      </c>
+      <c r="D123" s="22"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="25"/>
+      <c r="O123" s="24"/>
+      <c r="P123" s="25"/>
+      <c r="Q123" s="25"/>
+      <c r="R123" s="25"/>
+      <c r="S123" s="25"/>
+    </row>
+    <row r="124" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8">
+        <f>C123</f>
+        <v>45683</v>
+      </c>
+      <c r="D124" s="8">
+        <f>C123+1</f>
+        <v>45684</v>
+      </c>
+      <c r="E124" s="8">
+        <f>C123+2</f>
+        <v>45685</v>
+      </c>
+      <c r="F124" s="8">
+        <f>C123+3</f>
+        <v>45686</v>
+      </c>
+      <c r="G124" s="8">
+        <f>C123+4</f>
+        <v>45687</v>
+      </c>
+      <c r="H124" s="8">
+        <f>C123+5</f>
+        <v>45688</v>
+      </c>
+      <c r="I124" s="8">
+        <f>C123+6</f>
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A125" s="9"/>
+      <c r="C125" s="10" t="str">
+        <f t="shared" ref="C125:I125" si="16">UPPER(TEXT(C124, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D125" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E125" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F125" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G125" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H125" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I125" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="12.75">
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="127" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="128" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="129" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="130" spans="1:19" ht="30" customHeight="1">
+      <c r="A130" s="1"/>
+      <c r="B130" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130" s="21">
+        <v>45690</v>
+      </c>
+      <c r="D130" s="22"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="24"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+    </row>
+    <row r="131" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="8">
+        <f>C130</f>
+        <v>45690</v>
+      </c>
+      <c r="D131" s="8">
+        <f>C130+1</f>
+        <v>45691</v>
+      </c>
+      <c r="E131" s="8">
+        <f>C130+2</f>
+        <v>45692</v>
+      </c>
+      <c r="F131" s="8">
+        <f>C130+3</f>
+        <v>45693</v>
+      </c>
+      <c r="G131" s="8">
+        <f>C130+4</f>
+        <v>45694</v>
+      </c>
+      <c r="H131" s="8">
+        <f>C130+5</f>
+        <v>45695</v>
+      </c>
+      <c r="I131" s="8">
+        <f>C130+6</f>
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A132" s="9"/>
+      <c r="C132" s="10" t="str">
+        <f t="shared" ref="C132:I132" si="17">UPPER(TEXT(C131, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D132" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E132" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F132" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G132" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H132" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I132" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="63.75">
+      <c r="A133" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="135" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="136" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="137" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="138" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="139" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="140" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="141" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="142" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="143" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -3603,7 +3846,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="40">
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -3620,24 +3887,6 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -325,6 +325,25 @@
   </si>
   <si>
     <t xml:space="preserve">Tìm hiểu về Vue.js. Về component </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 18
+</t>
+  </si>
+  <si>
+    <t>Chỉnh lại form SendMessToAsset (bắt trường hợp nhấn gửi khi không chọn Mess nào, thêm cột hiện trạng thái sau gửi, chỉnh lại nút làm mới)</t>
+  </si>
+  <si>
+    <t>Chỉnh lại form SendMessToAsset (Hiện thị Mess dưới dạng Json). Đọc tài liệu và tìm hiểu về crystal report</t>
+  </si>
+  <si>
+    <t>Làm crystal report(báo cáo tổng hợp số dư ký quỹ)</t>
+  </si>
+  <si>
+    <t>Làm API lấy dữ liệu từ sp (marp.spmarp_debit_by_stock_get db marp) trên LoansMarp và  sp(mamo.spmamo_debit_by_stock_get db mamo) trên LoansMamo. Làm giao diện form báo cáo tương ứng</t>
+  </si>
+  <si>
+    <t>Chỉnh lại những lỗi còn sót của form SendMessToAsset và báo cáo và nộp. Sửa lại Api và hoàn thiện giao diện form DetaiAndDebitReprot</t>
   </si>
 </sst>
 </file>
@@ -794,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2981,10 +3000,119 @@
     <row r="134" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="135" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="136" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="137" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="138" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="139" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="140" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="137" spans="1:19" ht="30" customHeight="1">
+      <c r="A137" s="1"/>
+      <c r="B137" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" s="21">
+        <v>45697</v>
+      </c>
+      <c r="D137" s="22"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="25"/>
+      <c r="O137" s="24"/>
+      <c r="P137" s="25"/>
+      <c r="Q137" s="25"/>
+      <c r="R137" s="25"/>
+      <c r="S137" s="25"/>
+    </row>
+    <row r="138" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8">
+        <f>C137</f>
+        <v>45697</v>
+      </c>
+      <c r="D138" s="8">
+        <f>C137+1</f>
+        <v>45698</v>
+      </c>
+      <c r="E138" s="8">
+        <f>C137+2</f>
+        <v>45699</v>
+      </c>
+      <c r="F138" s="8">
+        <f>C137+3</f>
+        <v>45700</v>
+      </c>
+      <c r="G138" s="8">
+        <f>C137+4</f>
+        <v>45701</v>
+      </c>
+      <c r="H138" s="8">
+        <f>C137+5</f>
+        <v>45702</v>
+      </c>
+      <c r="I138" s="8">
+        <f>C137+6</f>
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A139" s="9"/>
+      <c r="C139" s="10" t="str">
+        <f t="shared" ref="C139:I139" si="18">UPPER(TEXT(C138, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D139" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E139" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F139" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G139" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H139" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I139" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="140.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G140" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H140" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="141" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="142" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="143" spans="1:19" ht="15.75" customHeight="1"/>
@@ -3846,31 +3974,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
+  <mergeCells count="43">
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="J137:N137"/>
+    <mergeCell ref="O137:S137"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -3887,6 +3994,30 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -344,6 +344,25 @@
   </si>
   <si>
     <t>Chỉnh lại những lỗi còn sót của form SendMessToAsset và báo cáo và nộp. Sửa lại Api và hoàn thiện giao diện form DetaiAndDebitReprot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 19
+</t>
+  </si>
+  <si>
+    <t>Hoàn thiện các chức năng của form DetaiAndDebitReprot. Chiều nghỉ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người hướng dẫn kiểm tra lại form. Sửa lại hàm btnReset_Click, thêm hiện số bản ghi tìm được. Nghỉ chiều </t>
+  </si>
+  <si>
+    <t>Sửa lỗi sau khi nhấn suất file excel. Và đẩy code lên.</t>
+  </si>
+  <si>
+    <t>Đọc và tìm hiểu thuật toán của xuất file excel</t>
+  </si>
+  <si>
+    <t>Đọc và tìm hiểu thuật toán của GridViewPagingControl</t>
   </si>
 </sst>
 </file>
@@ -813,8 +832,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3116,23 +3135,132 @@
     <row r="141" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="142" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="143" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="144" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:19" ht="30" customHeight="1">
+      <c r="A144" s="1"/>
+      <c r="B144" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="21">
+        <v>45704</v>
+      </c>
+      <c r="D144" s="22"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="25"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="25"/>
+      <c r="N144" s="25"/>
+      <c r="O144" s="24"/>
+      <c r="P144" s="25"/>
+      <c r="Q144" s="25"/>
+      <c r="R144" s="25"/>
+      <c r="S144" s="25"/>
+    </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8">
+        <f>C144</f>
+        <v>45704</v>
+      </c>
+      <c r="D145" s="8">
+        <f>C144+1</f>
+        <v>45705</v>
+      </c>
+      <c r="E145" s="8">
+        <f>C144+2</f>
+        <v>45706</v>
+      </c>
+      <c r="F145" s="8">
+        <f>C144+3</f>
+        <v>45707</v>
+      </c>
+      <c r="G145" s="8">
+        <f>C144+4</f>
+        <v>45708</v>
+      </c>
+      <c r="H145" s="8">
+        <f>C144+5</f>
+        <v>45709</v>
+      </c>
+      <c r="I145" s="8">
+        <f>C144+6</f>
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A146" s="9"/>
+      <c r="C146" s="10" t="str">
+        <f t="shared" ref="C146:I146" si="19">UPPER(TEXT(C145, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D146" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E146" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F146" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G146" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H146" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I146" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="63.75">
+      <c r="A147" s="11"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="149" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="150" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="152" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="153" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="154" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="155" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="156" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="157" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="158" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="160" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="161" ht="15.75" customHeight="1"/>
     <row r="162" ht="15.75" customHeight="1"/>
     <row r="163" ht="15.75" customHeight="1"/>
@@ -3974,10 +4102,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="46">
     <mergeCell ref="E137:I137"/>
     <mergeCell ref="J137:N137"/>
     <mergeCell ref="O137:S137"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="O144:S144"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -363,6 +363,25 @@
   </si>
   <si>
     <t>Đọc và tìm hiểu thuật toán của GridViewPagingControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 20
+</t>
+  </si>
+  <si>
+    <t>Làm các chức năng trong form (Chọn file,Import file, làm mới ). Thêm trường ClientName trong sp tra cứu số lượng và dư nợ cho vay theo mã CK của từng KH, sửa lại API và form tương ứng.</t>
+  </si>
+  <si>
+    <t>Chuyển 2 form API REQUEST TOOL (CCTC) và GỬI MESSAGE ĐẾN TOPIC KAFKA từ Ezprocessing sang EzLoans</t>
+  </si>
+  <si>
+    <t>Làm giao diện form cập nhật sức mua chứng khoán trên EzLoans. Nghỉ buổi chiều</t>
+  </si>
+  <si>
+    <t>Tìm và sửa lỗi bị disable nút sau khi suất file excel của các form của EzMargin</t>
+  </si>
+  <si>
+    <t>Người giám sát kiểm tra và sửa lỗi còn tồn tại. Làm giao diện form điều chỉnh hạn mức margin đặc biệt</t>
   </si>
 </sst>
 </file>
@@ -832,8 +851,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L164" sqref="L164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3160,7 +3179,7 @@
       <c r="R144" s="25"/>
       <c r="S144" s="25"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" customHeight="1">
+    <row r="145" spans="1:19" ht="15.75" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8">
@@ -3192,7 +3211,7 @@
         <v>45710</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" customHeight="1">
+    <row r="146" spans="1:19" ht="15.75" customHeight="1">
       <c r="A146" s="9"/>
       <c r="C146" s="10" t="str">
         <f t="shared" ref="C146:I146" si="19">UPPER(TEXT(C145, "DDDD"))</f>
@@ -3223,7 +3242,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="63.75">
+    <row r="147" spans="1:19" ht="63.75">
       <c r="A147" s="11"/>
       <c r="B147" s="12"/>
       <c r="C147" s="19" t="s">
@@ -3248,19 +3267,128 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="149" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="150" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="151" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="152" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="153" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="154" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="155" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="156" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="157" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="158" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="159" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="160" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="148" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="149" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="150" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="151" spans="1:19" ht="30" customHeight="1">
+      <c r="A151" s="1"/>
+      <c r="B151" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="21">
+        <v>45711</v>
+      </c>
+      <c r="D151" s="22"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="25"/>
+      <c r="L151" s="25"/>
+      <c r="M151" s="25"/>
+      <c r="N151" s="25"/>
+      <c r="O151" s="24"/>
+      <c r="P151" s="25"/>
+      <c r="Q151" s="25"/>
+      <c r="R151" s="25"/>
+      <c r="S151" s="25"/>
+    </row>
+    <row r="152" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="8">
+        <f>C151</f>
+        <v>45711</v>
+      </c>
+      <c r="D152" s="8">
+        <f>C151+1</f>
+        <v>45712</v>
+      </c>
+      <c r="E152" s="8">
+        <f>C151+2</f>
+        <v>45713</v>
+      </c>
+      <c r="F152" s="8">
+        <f>C151+3</f>
+        <v>45714</v>
+      </c>
+      <c r="G152" s="8">
+        <f>C151+4</f>
+        <v>45715</v>
+      </c>
+      <c r="H152" s="8">
+        <f>C151+5</f>
+        <v>45716</v>
+      </c>
+      <c r="I152" s="8">
+        <f>C151+6</f>
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A153" s="9"/>
+      <c r="C153" s="10" t="str">
+        <f t="shared" ref="C153:I153" si="20">UPPER(TEXT(C152, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D153" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E153" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F153" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G153" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H153" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I153" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="127.5">
+      <c r="A154" s="11"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F154" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I154" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="156" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="157" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="158" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="159" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="160" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="161" ht="15.75" customHeight="1"/>
     <row r="162" ht="15.75" customHeight="1"/>
     <row r="163" ht="15.75" customHeight="1"/>
@@ -4102,13 +4230,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="E137:I137"/>
-    <mergeCell ref="J137:N137"/>
-    <mergeCell ref="O137:S137"/>
-    <mergeCell ref="E144:I144"/>
-    <mergeCell ref="J144:N144"/>
-    <mergeCell ref="O144:S144"/>
+  <mergeCells count="49">
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -4125,30 +4271,15 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E151:I151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="J137:N137"/>
+    <mergeCell ref="O137:S137"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="O144:S144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -382,6 +382,29 @@
   </si>
   <si>
     <t>Người giám sát kiểm tra và sửa lỗi còn tồn tại. Làm giao diện form điều chỉnh hạn mức margin đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đẩy form API REQUEST TOOL (CCTC) và GỬI MESSAGE ĐẾN TOPIC KAFKA và CÂP NHẬT SỨC MƯA CHỨNG KHOÁN lên bản test .Làm giao diện form điều chỉnh hạn mức margin đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code hàm nút làm mới và xuất excel cho form điều chỉnh hạn mức margin đặc biệt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code hàm nút tìm kiếm cho form điều chỉnh hạn mức margin đặc biệt </t>
+  </si>
+  <si>
+    <t>Sửa logic và thêm cột hiện trạng thái sau cấp nhật cho form điều chỉnh hạn mức margin đặc biệt.</t>
+  </si>
+  <si>
+    <t>Code hàm nút cập nhật cho form điều chỉnh hạn mức margin đặc biệt. Nghỉ chiều</t>
   </si>
 </sst>
 </file>
@@ -851,8 +874,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L164" sqref="L164"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3386,25 +3409,231 @@
     <row r="155" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="156" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="157" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="158" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="159" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="160" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="158" spans="1:19" ht="30" customHeight="1">
+      <c r="A158" s="1"/>
+      <c r="B158" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C158" s="21">
+        <v>45718</v>
+      </c>
+      <c r="D158" s="22"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
+      <c r="N158" s="25"/>
+      <c r="O158" s="24"/>
+      <c r="P158" s="25"/>
+      <c r="Q158" s="25"/>
+      <c r="R158" s="25"/>
+      <c r="S158" s="25"/>
+    </row>
+    <row r="159" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="8">
+        <f>C158</f>
+        <v>45718</v>
+      </c>
+      <c r="D159" s="8">
+        <f>C158+1</f>
+        <v>45719</v>
+      </c>
+      <c r="E159" s="8">
+        <f>C158+2</f>
+        <v>45720</v>
+      </c>
+      <c r="F159" s="8">
+        <f>C158+3</f>
+        <v>45721</v>
+      </c>
+      <c r="G159" s="8">
+        <f>C158+4</f>
+        <v>45722</v>
+      </c>
+      <c r="H159" s="8">
+        <f>C158+5</f>
+        <v>45723</v>
+      </c>
+      <c r="I159" s="8">
+        <f>C158+6</f>
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A160" s="9"/>
+      <c r="C160" s="10" t="str">
+        <f t="shared" ref="C160:I160" si="21">UPPER(TEXT(C159, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D160" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E160" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F160" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G160" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H160" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I160" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="114.75">
+      <c r="A161" s="11"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F161" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I161" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="163" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="164" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="165" spans="1:19" ht="30" customHeight="1">
+      <c r="A165" s="1"/>
+      <c r="B165" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C165" s="21">
+        <v>45725</v>
+      </c>
+      <c r="D165" s="22"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="25"/>
+      <c r="L165" s="25"/>
+      <c r="M165" s="25"/>
+      <c r="N165" s="25"/>
+      <c r="O165" s="24"/>
+      <c r="P165" s="25"/>
+      <c r="Q165" s="25"/>
+      <c r="R165" s="25"/>
+      <c r="S165" s="25"/>
+    </row>
+    <row r="166" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8">
+        <f>C165</f>
+        <v>45725</v>
+      </c>
+      <c r="D166" s="8">
+        <f>C165+1</f>
+        <v>45726</v>
+      </c>
+      <c r="E166" s="8">
+        <f>C165+2</f>
+        <v>45727</v>
+      </c>
+      <c r="F166" s="8">
+        <f>C165+3</f>
+        <v>45728</v>
+      </c>
+      <c r="G166" s="8">
+        <f>C165+4</f>
+        <v>45729</v>
+      </c>
+      <c r="H166" s="8">
+        <f>C165+5</f>
+        <v>45730</v>
+      </c>
+      <c r="I166" s="8">
+        <f>C165+6</f>
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A167" s="9"/>
+      <c r="C167" s="10" t="str">
+        <f t="shared" ref="C167:I167" si="22">UPPER(TEXT(C166, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D167" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E167" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F167" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G167" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H167" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I167" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="12.75">
+      <c r="A168" s="11"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+    </row>
+    <row r="169" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="170" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="171" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="172" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="173" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="174" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="175" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="176" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="177" ht="15.75" customHeight="1"/>
     <row r="178" ht="15.75" customHeight="1"/>
     <row r="179" ht="15.75" customHeight="1"/>
@@ -4230,31 +4459,22 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
+  <mergeCells count="55">
+    <mergeCell ref="E158:I158"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="O158:S158"/>
+    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="O165:S165"/>
+    <mergeCell ref="E151:I151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="J137:N137"/>
+    <mergeCell ref="O137:S137"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="O144:S144"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -4271,15 +4491,30 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
-    <mergeCell ref="E151:I151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="O151:S151"/>
-    <mergeCell ref="E137:I137"/>
-    <mergeCell ref="J137:N137"/>
-    <mergeCell ref="O137:S137"/>
-    <mergeCell ref="E144:I144"/>
-    <mergeCell ref="J144:N144"/>
-    <mergeCell ref="O144:S144"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -405,6 +405,25 @@
   </si>
   <si>
     <t>Code hàm nút cập nhật cho form điều chỉnh hạn mức margin đặc biệt. Nghỉ chiều</t>
+  </si>
+  <si>
+    <t>hoàn thiện nốt phần lấy vốn của form điều chỉnh hạn mức đặc biệt</t>
+  </si>
+  <si>
+    <t>Đẩy code form điều chỉnh hạn mức đặc biệt lên bản test 7.86. Sửa lỗi làm tròn của cột điều chỉnh hạn mức trong form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sửa các lỗi còn của form điều chỉnh hạn mức đặc biêt (nút tìm kiếm phải nhấn 2 lần, check ngày làm việc, gửi sai hạn mức cho acc), thêm note % cho mục điều chỉnh hạn </t>
+  </si>
+  <si>
+    <t>Đẩy form điều chỉnh hạn mức đặc biết lên bản UAT (7.89)</t>
+  </si>
+  <si>
+    <t>Tìm lỗi còn sót của form. Nghỉ chiều.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 23
+</t>
   </si>
 </sst>
 </file>
@@ -874,8 +893,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3613,26 +3632,140 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="12.75">
+    <row r="168" spans="1:19" ht="114.75">
       <c r="A168" s="11"/>
       <c r="B168" s="12"/>
       <c r="C168" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
+      <c r="D168" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F168" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G168" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I168" s="19" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="169" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="170" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="171" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="172" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="173" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="174" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="175" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="172" spans="1:19" ht="30" customHeight="1">
+      <c r="A172" s="1"/>
+      <c r="B172" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C172" s="21">
+        <v>45732</v>
+      </c>
+      <c r="D172" s="22"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="25"/>
+      <c r="L172" s="25"/>
+      <c r="M172" s="25"/>
+      <c r="N172" s="25"/>
+      <c r="O172" s="24"/>
+      <c r="P172" s="25"/>
+      <c r="Q172" s="25"/>
+      <c r="R172" s="25"/>
+      <c r="S172" s="25"/>
+    </row>
+    <row r="173" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="8">
+        <f>C172</f>
+        <v>45732</v>
+      </c>
+      <c r="D173" s="8">
+        <f>C172+1</f>
+        <v>45733</v>
+      </c>
+      <c r="E173" s="8">
+        <f>C172+2</f>
+        <v>45734</v>
+      </c>
+      <c r="F173" s="8">
+        <f>C172+3</f>
+        <v>45735</v>
+      </c>
+      <c r="G173" s="8">
+        <f>C172+4</f>
+        <v>45736</v>
+      </c>
+      <c r="H173" s="8">
+        <f>C172+5</f>
+        <v>45737</v>
+      </c>
+      <c r="I173" s="8">
+        <f>C172+6</f>
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A174" s="9"/>
+      <c r="C174" s="10" t="str">
+        <f t="shared" ref="C174:I174" si="23">UPPER(TEXT(C173, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D174" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E174" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F174" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G174" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H174" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I174" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="12.75">
+      <c r="A175" s="11"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+    </row>
     <row r="176" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="177" ht="15.75" customHeight="1"/>
     <row r="178" ht="15.75" customHeight="1"/>
@@ -4459,22 +4592,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="E158:I158"/>
-    <mergeCell ref="J158:N158"/>
-    <mergeCell ref="O158:S158"/>
-    <mergeCell ref="E165:I165"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="O165:S165"/>
-    <mergeCell ref="E151:I151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="O151:S151"/>
-    <mergeCell ref="E137:I137"/>
-    <mergeCell ref="J137:N137"/>
-    <mergeCell ref="O137:S137"/>
-    <mergeCell ref="E144:I144"/>
-    <mergeCell ref="J144:N144"/>
-    <mergeCell ref="O144:S144"/>
+  <mergeCells count="58">
+    <mergeCell ref="E172:I172"/>
+    <mergeCell ref="J172:N172"/>
+    <mergeCell ref="O172:S172"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -4491,30 +4636,21 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E151:I151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="J137:N137"/>
+    <mergeCell ref="O137:S137"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="O144:S144"/>
+    <mergeCell ref="E158:I158"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="O158:S158"/>
+    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="O165:S165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -423,6 +423,25 @@
   </si>
   <si>
     <t xml:space="preserve">Tuần: 23
+</t>
+  </si>
+  <si>
+    <t>đọc và tìm hiểu các sp trong marp_test</t>
+  </si>
+  <si>
+    <t>Đọc và tìm hiểu các sp trong marp_test</t>
+  </si>
+  <si>
+    <t>Đọc và nghiên cưu về code xử lý trong GridViewPager</t>
+  </si>
+  <si>
+    <t>Đọc và tìm hiểu các sp trong marp_tes. Nghỉ chiều</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu về docker. Đọc và nghiên cứu về code trong phần Header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 24
 </t>
   </si>
 </sst>
@@ -600,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -673,6 +692,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3748,18 +3770,30 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="12.75">
+    <row r="175" spans="1:19" ht="38.25">
       <c r="A175" s="11"/>
       <c r="B175" s="12"/>
       <c r="C175" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
+      <c r="D175" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E175" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F175" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G175" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H175" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
@@ -3767,22 +3801,124 @@
       <c r="N175" s="12"/>
     </row>
     <row r="176" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="177" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="178" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="179" spans="1:19" ht="30" customHeight="1">
+      <c r="A179" s="1"/>
+      <c r="B179" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C179" s="21">
+        <v>45739</v>
+      </c>
+      <c r="D179" s="22"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="25"/>
+      <c r="L179" s="25"/>
+      <c r="M179" s="25"/>
+      <c r="N179" s="25"/>
+      <c r="O179" s="24"/>
+      <c r="P179" s="25"/>
+      <c r="Q179" s="25"/>
+      <c r="R179" s="25"/>
+      <c r="S179" s="25"/>
+    </row>
+    <row r="180" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="8">
+        <f>C179</f>
+        <v>45739</v>
+      </c>
+      <c r="D180" s="8">
+        <f>C179+1</f>
+        <v>45740</v>
+      </c>
+      <c r="E180" s="8">
+        <f>C179+2</f>
+        <v>45741</v>
+      </c>
+      <c r="F180" s="8">
+        <f>C179+3</f>
+        <v>45742</v>
+      </c>
+      <c r="G180" s="8">
+        <f>C179+4</f>
+        <v>45743</v>
+      </c>
+      <c r="H180" s="8">
+        <f>C179+5</f>
+        <v>45744</v>
+      </c>
+      <c r="I180" s="8">
+        <f>C179+6</f>
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A181" s="9"/>
+      <c r="C181" s="10" t="str">
+        <f t="shared" ref="C181:I181" si="24">UPPER(TEXT(C180, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D181" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E181" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F181" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G181" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H181" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I181" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="12.75">
+      <c r="A182" s="11"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="28"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+    </row>
+    <row r="183" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="184" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="185" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="186" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="187" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="188" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="189" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="190" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="191" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="192" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="193" ht="15.75" customHeight="1"/>
     <row r="194" ht="15.75" customHeight="1"/>
     <row r="195" ht="15.75" customHeight="1"/>
@@ -4592,34 +4728,18 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="E172:I172"/>
-    <mergeCell ref="J172:N172"/>
-    <mergeCell ref="O172:S172"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
+  <mergeCells count="61">
+    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="O165:S165"/>
+    <mergeCell ref="E179:I179"/>
+    <mergeCell ref="J179:N179"/>
+    <mergeCell ref="O179:S179"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="O144:S144"/>
+    <mergeCell ref="E158:I158"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="O158:S158"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -4636,6 +4756,33 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E172:I172"/>
+    <mergeCell ref="J172:N172"/>
+    <mergeCell ref="O172:S172"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
     <mergeCell ref="E151:I151"/>
     <mergeCell ref="J151:N151"/>
     <mergeCell ref="O151:S151"/>
@@ -4643,14 +4790,6 @@
     <mergeCell ref="J137:N137"/>
     <mergeCell ref="O137:S137"/>
     <mergeCell ref="E144:I144"/>
-    <mergeCell ref="J144:N144"/>
-    <mergeCell ref="O144:S144"/>
-    <mergeCell ref="E158:I158"/>
-    <mergeCell ref="J158:N158"/>
-    <mergeCell ref="O158:S158"/>
-    <mergeCell ref="E165:I165"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="O165:S165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -375,9 +375,6 @@
     <t>Chuyển 2 form API REQUEST TOOL (CCTC) và GỬI MESSAGE ĐẾN TOPIC KAFKA từ Ezprocessing sang EzLoans</t>
   </si>
   <si>
-    <t>Làm giao diện form cập nhật sức mua chứng khoán trên EzLoans. Nghỉ buổi chiều</t>
-  </si>
-  <si>
     <t>Tìm và sửa lỗi bị disable nút sau khi suất file excel của các form của EzMargin</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
     <t>Sửa logic và thêm cột hiện trạng thái sau cấp nhật cho form điều chỉnh hạn mức margin đặc biệt.</t>
   </si>
   <si>
-    <t>Code hàm nút cập nhật cho form điều chỉnh hạn mức margin đặc biệt. Nghỉ chiều</t>
-  </si>
-  <si>
     <t>hoàn thiện nốt phần lấy vốn của form điều chỉnh hạn mức đặc biệt</t>
   </si>
   <si>
@@ -417,9 +411,6 @@
   </si>
   <si>
     <t>Đẩy form điều chỉnh hạn mức đặc biết lên bản UAT (7.89)</t>
-  </si>
-  <si>
-    <t>Tìm lỗi còn sót của form. Nghỉ chiều.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuần: 23
@@ -442,6 +433,34 @@
   </si>
   <si>
     <t xml:space="preserve">Tuần: 24
+</t>
+  </si>
+  <si>
+    <t>Tìm lỗi còn sót của form.                    Nghỉ chiều.</t>
+  </si>
+  <si>
+    <t>Code hàm nút cập nhật cho form điều chỉnh hạn mức margin đặc biệt.   Nghỉ chiều</t>
+  </si>
+  <si>
+    <t>Làm giao diện form cập nhật sức mua chứng khoán trên EzLoans.              Nghỉ buổi chiều</t>
+  </si>
+  <si>
+    <t>Tạo Cụm fitthuctap14 với địa chỉ Host tại máy mình (10.26.4.44:9092). Test gửi mess đến (thành công)</t>
+  </si>
+  <si>
+    <t>Dựng Kafka ui bằng Docker Compos. Tạo Cụm FPTS (10.26.7.58:9092,10.26.7.59:9092,10.26.7.60:9092)</t>
+  </si>
+  <si>
+    <t>Đọc và tìm hiểu các sp trong mamo_test. thêm định dạng số nhập vào của form điều chỉnh hạn mực đặc biệt</t>
+  </si>
+  <si>
+    <t>Đọc và tìm hiểu các sp trong mamo_test.    Nghỉ chiều</t>
+  </si>
+  <si>
+    <t>Sửa lại giao diện và làm mới textbox khi thay đổi lựa chọn của form điều chỉnh hạn mức đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 25
 </t>
   </si>
 </sst>
@@ -684,6 +703,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -692,9 +714,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,8 +934,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -943,11 +962,11 @@
         <v>45571</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1063,11 +1082,11 @@
         <v>45578</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1189,11 +1208,11 @@
         <v>45585</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1315,11 +1334,11 @@
         <v>45592</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1441,11 +1460,11 @@
         <v>45599</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="25"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1567,11 +1586,11 @@
         <v>45606</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="25"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -1694,11 +1713,11 @@
         <v>45613</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="25"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -1826,21 +1845,21 @@
         <v>45620</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -1943,21 +1962,21 @@
         <v>45627</v>
       </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
@@ -2060,21 +2079,21 @@
         <v>45634</v>
       </c>
       <c r="D67" s="22"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
@@ -2177,21 +2196,21 @@
         <v>45641</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:19" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
@@ -2294,21 +2313,21 @@
         <v>45648</v>
       </c>
       <c r="D83" s="22"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="25"/>
-      <c r="S83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
@@ -2411,21 +2430,21 @@
         <v>45655</v>
       </c>
       <c r="D91" s="22"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
-      <c r="S91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" ht="15.75" customHeight="1">
       <c r="A92" s="7"/>
@@ -2528,21 +2547,21 @@
         <v>45662</v>
       </c>
       <c r="D99" s="22"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="25"/>
-      <c r="N99" s="25"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="25"/>
-      <c r="Q99" s="25"/>
-      <c r="R99" s="25"/>
-      <c r="S99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" ht="15.75" customHeight="1">
       <c r="A100" s="7"/>
@@ -2646,21 +2665,21 @@
         <v>45669</v>
       </c>
       <c r="D108" s="22"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="25"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="25"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="25"/>
-      <c r="S108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" ht="15.75" customHeight="1">
       <c r="A109" s="7"/>
@@ -2763,21 +2782,21 @@
         <v>45676</v>
       </c>
       <c r="D116" s="22"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="24"/>
-      <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="25"/>
-      <c r="S116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="26"/>
+      <c r="Q116" s="26"/>
+      <c r="R116" s="26"/>
+      <c r="S116" s="26"/>
     </row>
     <row r="117" spans="1:19" ht="15.75" customHeight="1">
       <c r="A117" s="7"/>
@@ -2879,21 +2898,21 @@
         <v>45683</v>
       </c>
       <c r="D123" s="22"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="25"/>
-      <c r="O123" s="24"/>
-      <c r="P123" s="25"/>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="25"/>
-      <c r="S123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="25"/>
+      <c r="P123" s="26"/>
+      <c r="Q123" s="26"/>
+      <c r="R123" s="26"/>
+      <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:19" ht="15.75" customHeight="1">
       <c r="A124" s="7"/>
@@ -2995,21 +3014,21 @@
         <v>45690</v>
       </c>
       <c r="D130" s="22"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="25"/>
-      <c r="M130" s="25"/>
-      <c r="N130" s="25"/>
-      <c r="O130" s="24"/>
-      <c r="P130" s="25"/>
-      <c r="Q130" s="25"/>
-      <c r="R130" s="25"/>
-      <c r="S130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="26"/>
+      <c r="M130" s="26"/>
+      <c r="N130" s="26"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="26"/>
+      <c r="Q130" s="26"/>
+      <c r="R130" s="26"/>
+      <c r="S130" s="26"/>
     </row>
     <row r="131" spans="1:19" ht="15.75" customHeight="1">
       <c r="A131" s="7"/>
@@ -3111,21 +3130,21 @@
         <v>45697</v>
       </c>
       <c r="D137" s="22"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="25"/>
-      <c r="L137" s="25"/>
-      <c r="M137" s="25"/>
-      <c r="N137" s="25"/>
-      <c r="O137" s="24"/>
-      <c r="P137" s="25"/>
-      <c r="Q137" s="25"/>
-      <c r="R137" s="25"/>
-      <c r="S137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="26"/>
+      <c r="N137" s="26"/>
+      <c r="O137" s="25"/>
+      <c r="P137" s="26"/>
+      <c r="Q137" s="26"/>
+      <c r="R137" s="26"/>
+      <c r="S137" s="26"/>
     </row>
     <row r="138" spans="1:19" ht="15.75" customHeight="1">
       <c r="A138" s="7"/>
@@ -3227,21 +3246,21 @@
         <v>45704</v>
       </c>
       <c r="D144" s="22"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="24"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
-      <c r="N144" s="25"/>
-      <c r="O144" s="24"/>
-      <c r="P144" s="25"/>
-      <c r="Q144" s="25"/>
-      <c r="R144" s="25"/>
-      <c r="S144" s="25"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
+      <c r="N144" s="26"/>
+      <c r="O144" s="25"/>
+      <c r="P144" s="26"/>
+      <c r="Q144" s="26"/>
+      <c r="R144" s="26"/>
+      <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" ht="15.75" customHeight="1">
       <c r="A145" s="7"/>
@@ -3343,21 +3362,21 @@
         <v>45711</v>
       </c>
       <c r="D151" s="22"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="25"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="25"/>
-      <c r="L151" s="25"/>
-      <c r="M151" s="25"/>
-      <c r="N151" s="25"/>
-      <c r="O151" s="24"/>
-      <c r="P151" s="25"/>
-      <c r="Q151" s="25"/>
-      <c r="R151" s="25"/>
-      <c r="S151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="26"/>
+      <c r="M151" s="26"/>
+      <c r="N151" s="26"/>
+      <c r="O151" s="25"/>
+      <c r="P151" s="26"/>
+      <c r="Q151" s="26"/>
+      <c r="R151" s="26"/>
+      <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" ht="15.75" customHeight="1">
       <c r="A152" s="7"/>
@@ -3429,19 +3448,19 @@
         <v>2</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E154" s="19" t="s">
         <v>100</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G154" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I154" s="19" t="s">
         <v>2</v>
@@ -3453,27 +3472,27 @@
     <row r="158" spans="1:19" ht="30" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C158" s="21">
         <v>45718</v>
       </c>
       <c r="D158" s="22"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="24"/>
-      <c r="K158" s="25"/>
-      <c r="L158" s="25"/>
-      <c r="M158" s="25"/>
-      <c r="N158" s="25"/>
-      <c r="O158" s="24"/>
-      <c r="P158" s="25"/>
-      <c r="Q158" s="25"/>
-      <c r="R158" s="25"/>
-      <c r="S158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="26"/>
+      <c r="M158" s="26"/>
+      <c r="N158" s="26"/>
+      <c r="O158" s="25"/>
+      <c r="P158" s="26"/>
+      <c r="Q158" s="26"/>
+      <c r="R158" s="26"/>
+      <c r="S158" s="26"/>
     </row>
     <row r="159" spans="1:19" ht="15.75" customHeight="1">
       <c r="A159" s="7"/>
@@ -3545,19 +3564,19 @@
         <v>2</v>
       </c>
       <c r="D161" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E161" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E161" s="19" t="s">
+      <c r="F161" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G161" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F161" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G161" s="19" t="s">
+      <c r="H161" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="H161" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="I161" s="19" t="s">
         <v>2</v>
@@ -3569,27 +3588,27 @@
     <row r="165" spans="1:19" ht="30" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C165" s="21">
         <v>45725</v>
       </c>
       <c r="D165" s="22"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="25"/>
-      <c r="L165" s="25"/>
-      <c r="M165" s="25"/>
-      <c r="N165" s="25"/>
-      <c r="O165" s="24"/>
-      <c r="P165" s="25"/>
-      <c r="Q165" s="25"/>
-      <c r="R165" s="25"/>
-      <c r="S165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="25"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="26"/>
+      <c r="M165" s="26"/>
+      <c r="N165" s="26"/>
+      <c r="O165" s="25"/>
+      <c r="P165" s="26"/>
+      <c r="Q165" s="26"/>
+      <c r="R165" s="26"/>
+      <c r="S165" s="26"/>
     </row>
     <row r="166" spans="1:19" ht="15.75" customHeight="1">
       <c r="A166" s="7"/>
@@ -3661,19 +3680,19 @@
         <v>2</v>
       </c>
       <c r="D168" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F168" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G168" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E168" s="19" t="s">
+      <c r="H168" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="F168" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G168" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H168" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="I168" s="19" t="s">
         <v>2</v>
@@ -3685,27 +3704,27 @@
     <row r="172" spans="1:19" ht="30" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C172" s="21">
         <v>45732</v>
       </c>
       <c r="D172" s="22"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="25"/>
-      <c r="I172" s="25"/>
-      <c r="J172" s="24"/>
-      <c r="K172" s="25"/>
-      <c r="L172" s="25"/>
-      <c r="M172" s="25"/>
-      <c r="N172" s="25"/>
-      <c r="O172" s="24"/>
-      <c r="P172" s="25"/>
-      <c r="Q172" s="25"/>
-      <c r="R172" s="25"/>
-      <c r="S172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="25"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="26"/>
+      <c r="N172" s="26"/>
+      <c r="O172" s="25"/>
+      <c r="P172" s="26"/>
+      <c r="Q172" s="26"/>
+      <c r="R172" s="26"/>
+      <c r="S172" s="26"/>
     </row>
     <row r="173" spans="1:19" ht="15.75" customHeight="1">
       <c r="A173" s="7"/>
@@ -3776,20 +3795,20 @@
       <c r="C175" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E175" s="28" t="s">
+      <c r="D175" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H175" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="F175" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G175" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H175" s="28" t="s">
-        <v>121</v>
       </c>
       <c r="I175" s="12" t="s">
         <v>2</v>
@@ -3806,27 +3825,27 @@
     <row r="179" spans="1:19" ht="30" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C179" s="21">
         <v>45739</v>
       </c>
       <c r="D179" s="22"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="25"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="25"/>
-      <c r="L179" s="25"/>
-      <c r="M179" s="25"/>
-      <c r="N179" s="25"/>
-      <c r="O179" s="24"/>
-      <c r="P179" s="25"/>
-      <c r="Q179" s="25"/>
-      <c r="R179" s="25"/>
-      <c r="S179" s="25"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="26"/>
+      <c r="J179" s="25"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="26"/>
+      <c r="M179" s="26"/>
+      <c r="N179" s="26"/>
+      <c r="O179" s="25"/>
+      <c r="P179" s="26"/>
+      <c r="Q179" s="26"/>
+      <c r="R179" s="26"/>
+      <c r="S179" s="26"/>
     </row>
     <row r="180" spans="1:19" ht="15.75" customHeight="1">
       <c r="A180" s="7"/>
@@ -3891,19 +3910,31 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="12.75">
+    <row r="182" spans="1:19" ht="76.5">
       <c r="A182" s="11"/>
       <c r="B182" s="12"/>
       <c r="C182" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="28"/>
-      <c r="G182" s="28"/>
-      <c r="H182" s="28"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="28"/>
+      <c r="D182" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G182" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H182" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I182" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J182" s="24"/>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
@@ -3912,10 +3943,114 @@
     <row r="183" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="184" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="185" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="186" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="187" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="188" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="189" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="186" spans="1:19" ht="30" customHeight="1">
+      <c r="A186" s="1"/>
+      <c r="B186" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C186" s="21">
+        <v>45746</v>
+      </c>
+      <c r="D186" s="22"/>
+      <c r="E186" s="25"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="25"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="26"/>
+      <c r="M186" s="26"/>
+      <c r="N186" s="26"/>
+      <c r="O186" s="25"/>
+      <c r="P186" s="26"/>
+      <c r="Q186" s="26"/>
+      <c r="R186" s="26"/>
+      <c r="S186" s="26"/>
+    </row>
+    <row r="187" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="8">
+        <f>C186</f>
+        <v>45746</v>
+      </c>
+      <c r="D187" s="8">
+        <f>C186+1</f>
+        <v>45747</v>
+      </c>
+      <c r="E187" s="8">
+        <f>C186+2</f>
+        <v>45748</v>
+      </c>
+      <c r="F187" s="8">
+        <f>C186+3</f>
+        <v>45749</v>
+      </c>
+      <c r="G187" s="8">
+        <f>C186+4</f>
+        <v>45750</v>
+      </c>
+      <c r="H187" s="8">
+        <f>C186+5</f>
+        <v>45751</v>
+      </c>
+      <c r="I187" s="8">
+        <f>C186+6</f>
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A188" s="9"/>
+      <c r="C188" s="10" t="str">
+        <f t="shared" ref="C188:I188" si="25">UPPER(TEXT(C187, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D188" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E188" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F188" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G188" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H188" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I188" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" ht="12.75">
+      <c r="A189" s="11"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="24"/>
+      <c r="I189" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J189" s="24"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+    </row>
     <row r="190" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="191" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="192" spans="1:19" ht="15.75" customHeight="1"/>
@@ -4728,18 +4863,38 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="E165:I165"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="O165:S165"/>
-    <mergeCell ref="E179:I179"/>
-    <mergeCell ref="J179:N179"/>
-    <mergeCell ref="O179:S179"/>
-    <mergeCell ref="J144:N144"/>
-    <mergeCell ref="O144:S144"/>
-    <mergeCell ref="E158:I158"/>
-    <mergeCell ref="J158:N158"/>
-    <mergeCell ref="O158:S158"/>
+  <mergeCells count="64">
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="J137:N137"/>
+    <mergeCell ref="O137:S137"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="E186:I186"/>
+    <mergeCell ref="J186:N186"/>
+    <mergeCell ref="O186:S186"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -4756,40 +4911,23 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="O144:S144"/>
+    <mergeCell ref="E158:I158"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="O158:S158"/>
+    <mergeCell ref="E151:I151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="O165:S165"/>
+    <mergeCell ref="E179:I179"/>
+    <mergeCell ref="J179:N179"/>
+    <mergeCell ref="O179:S179"/>
     <mergeCell ref="E172:I172"/>
     <mergeCell ref="J172:N172"/>
     <mergeCell ref="O172:S172"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E151:I151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="O151:S151"/>
-    <mergeCell ref="E137:I137"/>
-    <mergeCell ref="J137:N137"/>
-    <mergeCell ref="O137:S137"/>
-    <mergeCell ref="E144:I144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -462,6 +462,18 @@
   <si>
     <t xml:space="preserve">Tuần: 25
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đọc và tìm hiểu các sp trong mamo_test. </t>
+  </si>
+  <si>
+    <t>Đọc và tìm hiểu các sp trong mamo_test. Tìm hiểu qua về phần pttk của Parameters_MarMor_2024</t>
+  </si>
+  <si>
+    <t>Sửa lại code phần cập nhật (Hiện thị số tài khoản cập nhật thành công theo số tài khoản chọn, thêm hiện lỗi khi thất bại, bỏ trạng thái của lần cập nhật cũ) đẩy lên bản 89</t>
+  </si>
+  <si>
+    <t>Nghỉ sáng.                      Tìm hiểu và thực hiện tạo biểu đồ bằng js(Chart.js, Highcharts, ApexCharts).</t>
   </si>
 </sst>
 </file>
@@ -934,8 +946,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4031,16 +4043,24 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="12.75">
+    <row r="189" spans="1:19" ht="102">
       <c r="A189" s="11"/>
       <c r="B189" s="12"/>
       <c r="C189" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="24"/>
+      <c r="D189" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="H189" s="24"/>
       <c r="I189" s="24" t="s">
         <v>2</v>
@@ -4864,37 +4884,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E137:I137"/>
-    <mergeCell ref="J137:N137"/>
-    <mergeCell ref="O137:S137"/>
-    <mergeCell ref="E144:I144"/>
-    <mergeCell ref="E186:I186"/>
-    <mergeCell ref="J186:N186"/>
-    <mergeCell ref="O186:S186"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="O165:S165"/>
+    <mergeCell ref="E179:I179"/>
+    <mergeCell ref="J179:N179"/>
+    <mergeCell ref="O179:S179"/>
+    <mergeCell ref="E172:I172"/>
+    <mergeCell ref="J172:N172"/>
+    <mergeCell ref="O172:S172"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -4911,6 +4908,37 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="J137:N137"/>
+    <mergeCell ref="O137:S137"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="E186:I186"/>
+    <mergeCell ref="J186:N186"/>
+    <mergeCell ref="O186:S186"/>
     <mergeCell ref="J144:N144"/>
     <mergeCell ref="O144:S144"/>
     <mergeCell ref="E158:I158"/>
@@ -4920,14 +4948,6 @@
     <mergeCell ref="J151:N151"/>
     <mergeCell ref="O151:S151"/>
     <mergeCell ref="E165:I165"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="O165:S165"/>
-    <mergeCell ref="E179:I179"/>
-    <mergeCell ref="J179:N179"/>
-    <mergeCell ref="O179:S179"/>
-    <mergeCell ref="E172:I172"/>
-    <mergeCell ref="J172:N172"/>
-    <mergeCell ref="O172:S172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -474,6 +474,24 @@
   </si>
   <si>
     <t>Nghỉ sáng.                      Tìm hiểu và thực hiện tạo biểu đồ bằng js(Chart.js, Highcharts, ApexCharts).</t>
+  </si>
+  <si>
+    <t>Đọc và nghiên cứu code các trong LoansMarp.</t>
+  </si>
+  <si>
+    <t>Nghỉ lễ</t>
+  </si>
+  <si>
+    <t>Tạo biểu đồ với lightweight-charts ( thêm các chỉ báo)</t>
+  </si>
+  <si>
+    <t>Tạo biểu đồ với lightweight-charts (thực hiên gộp nên, thêm các chỉ báo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghỉ sáng                     Đọc và nghiên cứu code trong EzProcessing           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đọc và nghiên cứu code trong EzProcessing           </t>
   </si>
 </sst>
 </file>
@@ -946,8 +964,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N207" sqref="N207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4061,7 +4079,9 @@
       <c r="G189" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H189" s="24"/>
+      <c r="H189" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="I189" s="24" t="s">
         <v>2</v>
       </c>
@@ -4074,22 +4094,238 @@
     <row r="190" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="191" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="192" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="193" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="194" spans="1:19" ht="30" customHeight="1">
+      <c r="A194" s="1"/>
+      <c r="B194" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C194" s="21">
+        <v>45753</v>
+      </c>
+      <c r="D194" s="22"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="26"/>
+      <c r="G194" s="26"/>
+      <c r="H194" s="26"/>
+      <c r="I194" s="26"/>
+      <c r="J194" s="25"/>
+      <c r="K194" s="26"/>
+      <c r="L194" s="26"/>
+      <c r="M194" s="26"/>
+      <c r="N194" s="26"/>
+      <c r="O194" s="25"/>
+      <c r="P194" s="26"/>
+      <c r="Q194" s="26"/>
+      <c r="R194" s="26"/>
+      <c r="S194" s="26"/>
+    </row>
+    <row r="195" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="8">
+        <f>C194</f>
+        <v>45753</v>
+      </c>
+      <c r="D195" s="8">
+        <f>C194+1</f>
+        <v>45754</v>
+      </c>
+      <c r="E195" s="8">
+        <f>C194+2</f>
+        <v>45755</v>
+      </c>
+      <c r="F195" s="8">
+        <f>C194+3</f>
+        <v>45756</v>
+      </c>
+      <c r="G195" s="8">
+        <f>C194+4</f>
+        <v>45757</v>
+      </c>
+      <c r="H195" s="8">
+        <f>C194+5</f>
+        <v>45758</v>
+      </c>
+      <c r="I195" s="8">
+        <f>C194+6</f>
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A196" s="9"/>
+      <c r="C196" s="10" t="str">
+        <f t="shared" ref="C196:I196" si="26">UPPER(TEXT(C195, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D196" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E196" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F196" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G196" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H196" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I196" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="51">
+      <c r="A197" s="11"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F197" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G197" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H197" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I197" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J197" s="24"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+    </row>
+    <row r="198" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="199" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="200" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="201" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="202" spans="1:19" ht="30" customHeight="1">
+      <c r="A202" s="1"/>
+      <c r="B202" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C202" s="21">
+        <v>45760</v>
+      </c>
+      <c r="D202" s="22"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="26"/>
+      <c r="G202" s="26"/>
+      <c r="H202" s="26"/>
+      <c r="I202" s="26"/>
+      <c r="J202" s="25"/>
+      <c r="K202" s="26"/>
+      <c r="L202" s="26"/>
+      <c r="M202" s="26"/>
+      <c r="N202" s="26"/>
+      <c r="O202" s="25"/>
+      <c r="P202" s="26"/>
+      <c r="Q202" s="26"/>
+      <c r="R202" s="26"/>
+      <c r="S202" s="26"/>
+    </row>
+    <row r="203" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="8">
+        <f>C202</f>
+        <v>45760</v>
+      </c>
+      <c r="D203" s="8">
+        <f>C202+1</f>
+        <v>45761</v>
+      </c>
+      <c r="E203" s="8">
+        <f>C202+2</f>
+        <v>45762</v>
+      </c>
+      <c r="F203" s="8">
+        <f>C202+3</f>
+        <v>45763</v>
+      </c>
+      <c r="G203" s="8">
+        <f>C202+4</f>
+        <v>45764</v>
+      </c>
+      <c r="H203" s="8">
+        <f>C202+5</f>
+        <v>45765</v>
+      </c>
+      <c r="I203" s="8">
+        <f>C202+6</f>
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A204" s="9"/>
+      <c r="C204" s="10" t="str">
+        <f t="shared" ref="C204:I204" si="27">UPPER(TEXT(C203, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D204" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E204" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F204" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G204" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H204" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I204" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" ht="12.75">
+      <c r="A205" s="11"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+      <c r="F205" s="24"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="24"/>
+      <c r="I205" s="24"/>
+      <c r="J205" s="24"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+    </row>
+    <row r="206" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="207" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="208" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="209" ht="15.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
@@ -4883,7 +5119,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="70">
+    <mergeCell ref="E194:I194"/>
+    <mergeCell ref="J194:N194"/>
+    <mergeCell ref="O194:S194"/>
+    <mergeCell ref="E202:I202"/>
+    <mergeCell ref="J202:N202"/>
+    <mergeCell ref="O202:S202"/>
     <mergeCell ref="J165:N165"/>
     <mergeCell ref="O165:S165"/>
     <mergeCell ref="E179:I179"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -492,6 +492,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Đọc và nghiên cứu code trong EzProcessing           </t>
+  </si>
+  <si>
+    <t>Tạo biểu đồ thông kê giá trị dòng với ApexCharts</t>
+  </si>
+  <si>
+    <t>Tìm hiểu các kiến thức cơ bản về chứng khoán</t>
+  </si>
+  <si>
+    <t>Xem lại code form điều chỉnh hạn mức xem có bỏ được binding redirects không (Không vì Npgsql 5.0.18.0 không hỗ trợ các thư viên đó ở phiên bản cao hơn, không cài bản Npgsql cao hơn vì đạng sử dung .NET Framework 4.7)</t>
+  </si>
+  <si>
+    <t>Tạo biểu đồ với lightweight-charts ( thêm các chỉ báo RSI, MACD, SAR)</t>
+  </si>
+  <si>
+    <t>Tạo API lấy danh sách hạn mức từ sp spmarp_quota_special_get</t>
   </si>
 </sst>
 </file>
@@ -964,8 +979,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N207" sqref="N207"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M205" sqref="M205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -975,7 +990,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -4305,18 +4320,30 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="12.75">
+    <row r="205" spans="1:19" ht="153">
       <c r="A205" s="11"/>
       <c r="B205" s="12"/>
       <c r="C205" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="24"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24"/>
-      <c r="G205" s="24"/>
-      <c r="H205" s="24"/>
-      <c r="I205" s="24"/>
+      <c r="D205" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G205" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H205" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I205" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="J205" s="24"/>
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
@@ -5120,20 +5147,46 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="E194:I194"/>
-    <mergeCell ref="J194:N194"/>
-    <mergeCell ref="O194:S194"/>
-    <mergeCell ref="E202:I202"/>
-    <mergeCell ref="J202:N202"/>
-    <mergeCell ref="O202:S202"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="O165:S165"/>
-    <mergeCell ref="E179:I179"/>
-    <mergeCell ref="J179:N179"/>
-    <mergeCell ref="O179:S179"/>
-    <mergeCell ref="E172:I172"/>
-    <mergeCell ref="J172:N172"/>
-    <mergeCell ref="O172:S172"/>
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="J137:N137"/>
+    <mergeCell ref="O137:S137"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="E186:I186"/>
+    <mergeCell ref="J186:N186"/>
+    <mergeCell ref="O186:S186"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="O144:S144"/>
+    <mergeCell ref="E158:I158"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="O158:S158"/>
+    <mergeCell ref="E151:I151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -5150,46 +5203,20 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E137:I137"/>
-    <mergeCell ref="J137:N137"/>
-    <mergeCell ref="O137:S137"/>
-    <mergeCell ref="E144:I144"/>
-    <mergeCell ref="E186:I186"/>
-    <mergeCell ref="J186:N186"/>
-    <mergeCell ref="O186:S186"/>
-    <mergeCell ref="J144:N144"/>
-    <mergeCell ref="O144:S144"/>
-    <mergeCell ref="E158:I158"/>
-    <mergeCell ref="J158:N158"/>
-    <mergeCell ref="O158:S158"/>
-    <mergeCell ref="E151:I151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="O151:S151"/>
-    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="O165:S165"/>
+    <mergeCell ref="E179:I179"/>
+    <mergeCell ref="J179:N179"/>
+    <mergeCell ref="O179:S179"/>
+    <mergeCell ref="E172:I172"/>
+    <mergeCell ref="J172:N172"/>
+    <mergeCell ref="O172:S172"/>
+    <mergeCell ref="E194:I194"/>
+    <mergeCell ref="J194:N194"/>
+    <mergeCell ref="O194:S194"/>
+    <mergeCell ref="E202:I202"/>
+    <mergeCell ref="J202:N202"/>
+    <mergeCell ref="O202:S202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="143">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -497,16 +497,13 @@
     <t>Tạo biểu đồ thông kê giá trị dòng với ApexCharts</t>
   </si>
   <si>
-    <t>Tìm hiểu các kiến thức cơ bản về chứng khoán</t>
-  </si>
-  <si>
-    <t>Xem lại code form điều chỉnh hạn mức xem có bỏ được binding redirects không (Không vì Npgsql 5.0.18.0 không hỗ trợ các thư viên đó ở phiên bản cao hơn, không cài bản Npgsql cao hơn vì đạng sử dung .NET Framework 4.7)</t>
-  </si>
-  <si>
     <t>Tạo biểu đồ với lightweight-charts ( thêm các chỉ báo RSI, MACD, SAR)</t>
   </si>
   <si>
     <t>Tạo API lấy danh sách hạn mức từ sp spmarp_quota_special_get</t>
+  </si>
+  <si>
+    <t>Xem lại code form điều chỉnh hạn mức xem có bỏ được binding redirects không (Không vì Npgsql 5.0.18.0 không hỗ trợ các thư viên đó ở phiên bản cao hơn, không cài bản Npgsql cao hơn vì đạng sử dụng .NET Framework 4.7)</t>
   </si>
 </sst>
 </file>
@@ -980,7 +977,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M205" sqref="M205"/>
+      <selection activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4320,7 +4317,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="153">
+    <row r="205" spans="1:19" ht="140.25">
       <c r="A205" s="11"/>
       <c r="B205" s="12"/>
       <c r="C205" s="19" t="s">
@@ -4330,16 +4327,16 @@
         <v>139</v>
       </c>
       <c r="E205" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G205" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F205" s="24" t="s">
+      <c r="H205" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="G205" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H205" s="24" t="s">
-        <v>143</v>
       </c>
       <c r="I205" s="24" t="s">
         <v>2</v>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -448,9 +448,6 @@
     <t>Tạo Cụm fitthuctap14 với địa chỉ Host tại máy mình (10.26.4.44:9092). Test gửi mess đến (thành công)</t>
   </si>
   <si>
-    <t>Dựng Kafka ui bằng Docker Compos. Tạo Cụm FPTS (10.26.7.58:9092,10.26.7.59:9092,10.26.7.60:9092)</t>
-  </si>
-  <si>
     <t>Đọc và tìm hiểu các sp trong mamo_test. thêm định dạng số nhập vào của form điều chỉnh hạn mực đặc biệt</t>
   </si>
   <si>
@@ -504,6 +501,35 @@
   </si>
   <si>
     <t>Xem lại code form điều chỉnh hạn mức xem có bỏ được binding redirects không (Không vì Npgsql 5.0.18.0 không hỗ trợ các thư viên đó ở phiên bản cao hơn, không cài bản Npgsql cao hơn vì đạng sử dụng .NET Framework 4.7)</t>
+  </si>
+  <si>
+    <t>Dựng Kafka ui bằng Docker Compose. Tạo Cụm FPTS (10.26.7.58:9092,10.26.7.59:9092,10.26.7.60:9092)</t>
+  </si>
+  <si>
+    <t>Thử tạo giao diện trang báo cáo tài sản                  Nghỉ chiều</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thử tạo giao diện trang báo cáo tài sản                  </t>
+  </si>
+  <si>
+    <t>Nghiên cứu API Query Parameters (pagination, Caching)                                 Nghỉ chiều.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 27
+</t>
+  </si>
+  <si>
+    <t>Nghiên cứu code gia hạn, trả nợ</t>
+  </si>
+  <si>
+    <t>Nghiên cứu code cầm cố, gia hạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu nghiệp vụ của mua, bán CK trên web, cầm cố, gia hạn, trả nợ bản dev. </t>
   </si>
 </sst>
 </file>
@@ -976,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N222" sqref="N222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1966,7 +1992,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="102">
+    <row r="54" spans="1:19" ht="89.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="19" t="s">
@@ -2200,7 +2226,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="89.25">
+    <row r="70" spans="1:19" ht="76.5">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="19" t="s">
@@ -2668,7 +2694,7 @@
         <v>SATURDAY</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="89.25">
+    <row r="102" spans="1:19" ht="76.5">
       <c r="A102" s="11"/>
       <c r="B102" s="12"/>
       <c r="C102" s="19" t="s">
@@ -3959,19 +3985,19 @@
         <v>2</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E182" s="24" t="s">
         <v>123</v>
       </c>
       <c r="F182" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G182" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H182" s="24" t="s">
         <v>126</v>
-      </c>
-      <c r="G182" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H182" s="24" t="s">
-        <v>127</v>
       </c>
       <c r="I182" s="24" t="s">
         <v>2</v>
@@ -3988,7 +4014,7 @@
     <row r="186" spans="1:19" ht="30" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C186" s="21">
         <v>45746</v>
@@ -4080,19 +4106,19 @@
         <v>2</v>
       </c>
       <c r="D189" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G189" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E189" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F189" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G189" s="24" t="s">
+      <c r="H189" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="H189" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="I189" s="24" t="s">
         <v>2</v>
@@ -4110,7 +4136,7 @@
     <row r="194" spans="1:19" ht="30" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C194" s="21">
         <v>45753</v>
@@ -4202,19 +4228,19 @@
         <v>2</v>
       </c>
       <c r="D197" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F197" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E197" s="24" t="s">
+      <c r="G197" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F197" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G197" s="24" t="s">
+      <c r="H197" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="H197" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="I197" s="24" t="s">
         <v>2</v>
@@ -4232,7 +4258,7 @@
     <row r="202" spans="1:19" ht="30" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C202" s="21">
         <v>45760</v>
@@ -4324,19 +4350,19 @@
         <v>2</v>
       </c>
       <c r="D205" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G205" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E205" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F205" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G205" s="24" t="s">
+      <c r="H205" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="H205" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="I205" s="24" t="s">
         <v>2</v>
@@ -4350,22 +4376,248 @@
     <row r="206" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="207" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="208" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="209" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="210" spans="1:19" ht="30" customHeight="1">
+      <c r="A210" s="1"/>
+      <c r="B210" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C210" s="21">
+        <v>45767</v>
+      </c>
+      <c r="D210" s="22"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="26"/>
+      <c r="G210" s="26"/>
+      <c r="H210" s="26"/>
+      <c r="I210" s="26"/>
+      <c r="J210" s="25"/>
+      <c r="K210" s="26"/>
+      <c r="L210" s="26"/>
+      <c r="M210" s="26"/>
+      <c r="N210" s="26"/>
+      <c r="O210" s="25"/>
+      <c r="P210" s="26"/>
+      <c r="Q210" s="26"/>
+      <c r="R210" s="26"/>
+      <c r="S210" s="26"/>
+    </row>
+    <row r="211" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="8">
+        <f>C210</f>
+        <v>45767</v>
+      </c>
+      <c r="D211" s="8">
+        <f>C210+1</f>
+        <v>45768</v>
+      </c>
+      <c r="E211" s="8">
+        <f>C210+2</f>
+        <v>45769</v>
+      </c>
+      <c r="F211" s="8">
+        <f>C210+3</f>
+        <v>45770</v>
+      </c>
+      <c r="G211" s="8">
+        <f>C210+4</f>
+        <v>45771</v>
+      </c>
+      <c r="H211" s="8">
+        <f>C210+5</f>
+        <v>45772</v>
+      </c>
+      <c r="I211" s="8">
+        <f>C210+6</f>
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A212" s="9"/>
+      <c r="C212" s="10" t="str">
+        <f t="shared" ref="C212:I212" si="28">UPPER(TEXT(C211, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D212" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E212" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F212" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G212" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H212" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I212" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" ht="51">
+      <c r="A213" s="11"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F213" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G213" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H213" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I213" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J213" s="24"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
+      <c r="M213" s="12"/>
+      <c r="N213" s="12"/>
+    </row>
+    <row r="214" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="215" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="216" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="217" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="218" spans="1:19" ht="30" customHeight="1">
+      <c r="A218" s="1"/>
+      <c r="B218" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C218" s="21">
+        <v>45774</v>
+      </c>
+      <c r="D218" s="22"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="26"/>
+      <c r="G218" s="26"/>
+      <c r="H218" s="26"/>
+      <c r="I218" s="26"/>
+      <c r="J218" s="25"/>
+      <c r="K218" s="26"/>
+      <c r="L218" s="26"/>
+      <c r="M218" s="26"/>
+      <c r="N218" s="26"/>
+      <c r="O218" s="25"/>
+      <c r="P218" s="26"/>
+      <c r="Q218" s="26"/>
+      <c r="R218" s="26"/>
+      <c r="S218" s="26"/>
+    </row>
+    <row r="219" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="8">
+        <f>C218</f>
+        <v>45774</v>
+      </c>
+      <c r="D219" s="8">
+        <f>C218+1</f>
+        <v>45775</v>
+      </c>
+      <c r="E219" s="8">
+        <f>C218+2</f>
+        <v>45776</v>
+      </c>
+      <c r="F219" s="8">
+        <f>C218+3</f>
+        <v>45777</v>
+      </c>
+      <c r="G219" s="8">
+        <f>C218+4</f>
+        <v>45778</v>
+      </c>
+      <c r="H219" s="8">
+        <f>C218+5</f>
+        <v>45779</v>
+      </c>
+      <c r="I219" s="8">
+        <f>C218+6</f>
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A220" s="9"/>
+      <c r="C220" s="10" t="str">
+        <f t="shared" ref="C220:I220" si="29">UPPER(TEXT(C219, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D220" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E220" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F220" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G220" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H220" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I220" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" ht="51">
+      <c r="A221" s="11"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E221" s="24"/>
+      <c r="F221" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G221" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H221" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I221" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J221" s="24"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="12"/>
+      <c r="M221" s="12"/>
+      <c r="N221" s="12"/>
+    </row>
+    <row r="222" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -5143,7 +5395,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="76">
     <mergeCell ref="E137:I137"/>
     <mergeCell ref="J137:N137"/>
     <mergeCell ref="O137:S137"/>
@@ -5214,6 +5466,12 @@
     <mergeCell ref="E202:I202"/>
     <mergeCell ref="J202:N202"/>
     <mergeCell ref="O202:S202"/>
+    <mergeCell ref="E210:I210"/>
+    <mergeCell ref="J210:N210"/>
+    <mergeCell ref="O210:S210"/>
+    <mergeCell ref="E218:I218"/>
+    <mergeCell ref="J218:N218"/>
+    <mergeCell ref="O218:S218"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="158">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -530,6 +530,28 @@
   </si>
   <si>
     <t xml:space="preserve">Tìm hiểu nghiệp vụ của mua, bán CK trên web, cầm cố, gia hạn, trả nợ bản dev. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 28
+</t>
+  </si>
+  <si>
+    <t>Tìm hiểu consume, tạo consume lấy mess và sử lý mes nhân được</t>
+  </si>
+  <si>
+    <t>tìm hiểu xem 3 file consume trong LoansMamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tạo bảng tnova_psc06, tnova_tienc06, tnova_ckc06, tnova_KHC06. Tạo sp spnova_bcc06_check (Kiểm tra xem có người đang lấy báo cáo không) và sp spnova_bcc06_log   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghỉ </t>
+  </si>
+  <si>
+    <t>Nghỉ sáng.                       Đọc và nghiên cứu PT_BCC06 cảu P_NOVA</t>
+  </si>
+  <si>
+    <t>Nghỉ sáng.                       Tìm hiểu xem 3 file consume trong LoansMamo</t>
   </si>
 </sst>
 </file>
@@ -1002,15 +1024,15 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N222" sqref="N222"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I230" sqref="I230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
@@ -4596,7 +4618,9 @@
       <c r="D221" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E221" s="24"/>
+      <c r="E221" s="24" t="s">
+        <v>150</v>
+      </c>
       <c r="F221" s="24" t="s">
         <v>133</v>
       </c>
@@ -4618,22 +4642,136 @@
     <row r="222" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="223" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="224" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="225" spans="1:19" ht="30" customHeight="1">
+      <c r="A225" s="1"/>
+      <c r="B225" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C225" s="21">
+        <v>45781</v>
+      </c>
+      <c r="D225" s="22"/>
+      <c r="E225" s="25"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="26"/>
+      <c r="H225" s="26"/>
+      <c r="I225" s="26"/>
+      <c r="J225" s="25"/>
+      <c r="K225" s="26"/>
+      <c r="L225" s="26"/>
+      <c r="M225" s="26"/>
+      <c r="N225" s="26"/>
+      <c r="O225" s="25"/>
+      <c r="P225" s="26"/>
+      <c r="Q225" s="26"/>
+      <c r="R225" s="26"/>
+      <c r="S225" s="26"/>
+    </row>
+    <row r="226" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A226" s="7"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="8">
+        <f>C225</f>
+        <v>45781</v>
+      </c>
+      <c r="D226" s="8">
+        <f>C225+1</f>
+        <v>45782</v>
+      </c>
+      <c r="E226" s="8">
+        <f>C225+2</f>
+        <v>45783</v>
+      </c>
+      <c r="F226" s="8">
+        <f>C225+3</f>
+        <v>45784</v>
+      </c>
+      <c r="G226" s="8">
+        <f>C225+4</f>
+        <v>45785</v>
+      </c>
+      <c r="H226" s="8">
+        <f>C225+5</f>
+        <v>45786</v>
+      </c>
+      <c r="I226" s="8">
+        <f>C225+6</f>
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A227" s="9"/>
+      <c r="C227" s="10" t="str">
+        <f t="shared" ref="C227:I227" si="30">UPPER(TEXT(C226, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D227" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E227" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F227" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G227" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H227" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I227" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" ht="102">
+      <c r="A228" s="11"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E228" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F228" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G228" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H228" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I228" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J228" s="24"/>
+      <c r="K228" s="12"/>
+      <c r="L228" s="12"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="12"/>
+    </row>
+    <row r="229" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="230" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="231" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="232" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="233" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="234" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="235" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="236" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -5395,7 +5533,70 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="79">
+    <mergeCell ref="E225:I225"/>
+    <mergeCell ref="J225:N225"/>
+    <mergeCell ref="O225:S225"/>
+    <mergeCell ref="E210:I210"/>
+    <mergeCell ref="J210:N210"/>
+    <mergeCell ref="O210:S210"/>
+    <mergeCell ref="E218:I218"/>
+    <mergeCell ref="J218:N218"/>
+    <mergeCell ref="O218:S218"/>
+    <mergeCell ref="E194:I194"/>
+    <mergeCell ref="J194:N194"/>
+    <mergeCell ref="O194:S194"/>
+    <mergeCell ref="E202:I202"/>
+    <mergeCell ref="J202:N202"/>
+    <mergeCell ref="O202:S202"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="O165:S165"/>
+    <mergeCell ref="E179:I179"/>
+    <mergeCell ref="J179:N179"/>
+    <mergeCell ref="O179:S179"/>
+    <mergeCell ref="E172:I172"/>
+    <mergeCell ref="J172:N172"/>
+    <mergeCell ref="O172:S172"/>
+    <mergeCell ref="E116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="O116:S116"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="O67:S67"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:N59"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
     <mergeCell ref="E137:I137"/>
     <mergeCell ref="J137:N137"/>
     <mergeCell ref="O137:S137"/>
@@ -5412,66 +5613,6 @@
     <mergeCell ref="J151:N151"/>
     <mergeCell ref="O151:S151"/>
     <mergeCell ref="E165:I165"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
-    <mergeCell ref="E116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="O116:S116"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:N59"/>
-    <mergeCell ref="O59:S59"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="O165:S165"/>
-    <mergeCell ref="E179:I179"/>
-    <mergeCell ref="J179:N179"/>
-    <mergeCell ref="O179:S179"/>
-    <mergeCell ref="E172:I172"/>
-    <mergeCell ref="J172:N172"/>
-    <mergeCell ref="O172:S172"/>
-    <mergeCell ref="E194:I194"/>
-    <mergeCell ref="J194:N194"/>
-    <mergeCell ref="O194:S194"/>
-    <mergeCell ref="E202:I202"/>
-    <mergeCell ref="J202:N202"/>
-    <mergeCell ref="O202:S202"/>
-    <mergeCell ref="E210:I210"/>
-    <mergeCell ref="J210:N210"/>
-    <mergeCell ref="O210:S210"/>
-    <mergeCell ref="E218:I218"/>
-    <mergeCell ref="J218:N218"/>
-    <mergeCell ref="O218:S218"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -548,10 +548,100 @@
     <t xml:space="preserve">Nghỉ </t>
   </si>
   <si>
-    <t>Nghỉ sáng.                       Đọc và nghiên cứu PT_BCC06 cảu P_NOVA</t>
-  </si>
-  <si>
     <t>Nghỉ sáng.                       Tìm hiểu xem 3 file consume trong LoansMamo</t>
+  </si>
+  <si>
+    <t>Nghỉ sáng.                       Đọc và nghiên cứu PT_BCC06 của P_NOVA. Làm giao diện của form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 29
+</t>
+  </si>
+  <si>
+    <t>Làm giao diện form báo cáo C06 danh sách thông tin khách hàng, Code sử lý nút làm mới.</t>
+  </si>
+  <si>
+    <t>Tạo sp insert dữ liệu khách hàng lấy từ sp ezopen.spopen_getacclist_bydate theo object. Sp spnova_tonghop_BCC06_get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Xử lý phần check và phần ghi log bắt bắt đầu. Các hàm gọi vàlấy dữ liệu từ ezopen.spopen_getacclist_bydate, spnova_bcc06_check, spnova_bcc06_log    .  </t>
+  </si>
+  <si>
+    <t>Code hàm gọi và lấy dữ liệu từ các sp spnova_tonghop_BCC06_get, spnova_bcc06_insert_KHC06, tổng hợp dư liệu và xuất dư liệu ra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉnh lại code cho phù hợp với thư muc, làm menu và đẩy code lên 7.86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 30
+</t>
+  </si>
+  <si>
+    <t>Làm giào diện form thu phí khác, code xử lý insert (thu phí dùng spfee_feeothers_i) và get dữ liệu dùng spfee_feeothers_get</t>
+  </si>
+  <si>
+    <t>Sửa sp ( gộp sp check và log begin, thêm sp log finish)                                  Nghỉ chiều</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinh chỉnh lại code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa lại lỗi code (xung đội giữa 2 phiên) và sử sp (thêm cột aimportdate cho bảng KH) </t>
+  </si>
+  <si>
+    <t>Đẩy code form BCC06 lên krxuat. Đọc qua code của EzFee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 31
+</t>
+  </si>
+  <si>
+    <t>Code xử lý update (dùng sp spfee_feeothers_u), xuất file excel và làm mới</t>
+  </si>
+  <si>
+    <t>Rà soát lỗi và sửa lỗi. Đẩy lên test và uat</t>
+  </si>
+  <si>
+    <t>Thêm phần xóa (dùng sp spfee_feeothers_del) với cột ngày thu với chỉnh cho nó nhập thêm phần thập của form thu phí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 32
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 33
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuần: 34
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa lại định dạng báo cáo thực thu lưu ký (LK09) </t>
+  </si>
+  <si>
+    <t>Debug nut update của form thiết lập mã chứng khoán                                Nghỉ chiều</t>
+  </si>
+  <si>
+    <t>Sửa lại báo cáo công nộ</t>
+  </si>
+  <si>
+    <t>Sửa lại báo cáo LK14 bỏ thêm cột VAT</t>
+  </si>
+  <si>
+    <t>Sửa loại form API Request Tool của ezLoan khi chuối trả về quá lớn thì xuất thành một file.                  Nghỉ chiều</t>
+  </si>
+  <si>
+    <t>Xem và tinh chỉnh lại code của form cảnh báo mã CK theo VCHS v0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu về keycload </t>
+  </si>
+  <si>
+    <t>Tìm hiểu React.js và xác định các Component trong một trang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghỉ sáng.                                       Review lại code                                                </t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1114,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I230" sqref="I230"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G284" sqref="G284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4743,10 +4833,10 @@
         <v>153</v>
       </c>
       <c r="F228" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G228" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="G228" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="H228" s="24" t="s">
         <v>154</v>
@@ -4763,63 +4853,835 @@
     <row r="229" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="230" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="231" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="232" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="233" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="234" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="235" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="232" spans="1:19" ht="30" customHeight="1">
+      <c r="A232" s="1"/>
+      <c r="B232" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C232" s="21">
+        <v>45788</v>
+      </c>
+      <c r="D232" s="22"/>
+      <c r="E232" s="25"/>
+      <c r="F232" s="26"/>
+      <c r="G232" s="26"/>
+      <c r="H232" s="26"/>
+      <c r="I232" s="26"/>
+      <c r="J232" s="25"/>
+      <c r="K232" s="26"/>
+      <c r="L232" s="26"/>
+      <c r="M232" s="26"/>
+      <c r="N232" s="26"/>
+      <c r="O232" s="25"/>
+      <c r="P232" s="26"/>
+      <c r="Q232" s="26"/>
+      <c r="R232" s="26"/>
+      <c r="S232" s="26"/>
+    </row>
+    <row r="233" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A233" s="7"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="8">
+        <f>C232</f>
+        <v>45788</v>
+      </c>
+      <c r="D233" s="8">
+        <f>C232+1</f>
+        <v>45789</v>
+      </c>
+      <c r="E233" s="8">
+        <f>C232+2</f>
+        <v>45790</v>
+      </c>
+      <c r="F233" s="8">
+        <f>C232+3</f>
+        <v>45791</v>
+      </c>
+      <c r="G233" s="8">
+        <f>C232+4</f>
+        <v>45792</v>
+      </c>
+      <c r="H233" s="8">
+        <f>C232+5</f>
+        <v>45793</v>
+      </c>
+      <c r="I233" s="8">
+        <f>C232+6</f>
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A234" s="9"/>
+      <c r="C234" s="10" t="str">
+        <f t="shared" ref="C234:I234" si="31">UPPER(TEXT(C233, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D234" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E234" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F234" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G234" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H234" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I234" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" ht="102">
+      <c r="A235" s="11"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E235" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F235" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G235" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H235" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I235" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J235" s="24"/>
+      <c r="K235" s="12"/>
+      <c r="L235" s="12"/>
+      <c r="M235" s="12"/>
+      <c r="N235" s="12"/>
+    </row>
     <row r="236" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="237" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="238" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="239" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="240" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:19" ht="30" customHeight="1">
+      <c r="A239" s="1"/>
+      <c r="B239" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C239" s="21">
+        <v>45795</v>
+      </c>
+      <c r="D239" s="22"/>
+      <c r="E239" s="25"/>
+      <c r="F239" s="26"/>
+      <c r="G239" s="26"/>
+      <c r="H239" s="26"/>
+      <c r="I239" s="26"/>
+      <c r="J239" s="25"/>
+      <c r="K239" s="26"/>
+      <c r="L239" s="26"/>
+      <c r="M239" s="26"/>
+      <c r="N239" s="26"/>
+      <c r="O239" s="25"/>
+      <c r="P239" s="26"/>
+      <c r="Q239" s="26"/>
+      <c r="R239" s="26"/>
+      <c r="S239" s="26"/>
+    </row>
+    <row r="240" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A240" s="7"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="8">
+        <f>C239</f>
+        <v>45795</v>
+      </c>
+      <c r="D240" s="8">
+        <f>C239+1</f>
+        <v>45796</v>
+      </c>
+      <c r="E240" s="8">
+        <f>C239+2</f>
+        <v>45797</v>
+      </c>
+      <c r="F240" s="8">
+        <f>C239+3</f>
+        <v>45798</v>
+      </c>
+      <c r="G240" s="8">
+        <f>C239+4</f>
+        <v>45799</v>
+      </c>
+      <c r="H240" s="8">
+        <f>C239+5</f>
+        <v>45800</v>
+      </c>
+      <c r="I240" s="8">
+        <f>C239+6</f>
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A241" s="9"/>
+      <c r="C241" s="10" t="str">
+        <f t="shared" ref="C241:I241" si="32">UPPER(TEXT(C240, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D241" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E241" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F241" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G241" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H241" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I241" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" ht="76.5">
+      <c r="A242" s="11"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E242" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F242" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G242" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H242" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I242" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J242" s="24"/>
+      <c r="K242" s="12"/>
+      <c r="L242" s="12"/>
+      <c r="M242" s="12"/>
+      <c r="N242" s="12"/>
+    </row>
+    <row r="243" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="244" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="245" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="246" spans="1:19" ht="30" customHeight="1">
+      <c r="A246" s="1"/>
+      <c r="B246" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C246" s="21">
+        <v>45802</v>
+      </c>
+      <c r="D246" s="22"/>
+      <c r="E246" s="25"/>
+      <c r="F246" s="26"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="26"/>
+      <c r="I246" s="26"/>
+      <c r="J246" s="25"/>
+      <c r="K246" s="26"/>
+      <c r="L246" s="26"/>
+      <c r="M246" s="26"/>
+      <c r="N246" s="26"/>
+      <c r="O246" s="25"/>
+      <c r="P246" s="26"/>
+      <c r="Q246" s="26"/>
+      <c r="R246" s="26"/>
+      <c r="S246" s="26"/>
+    </row>
+    <row r="247" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="8">
+        <f>C246</f>
+        <v>45802</v>
+      </c>
+      <c r="D247" s="8">
+        <f>C246+1</f>
+        <v>45803</v>
+      </c>
+      <c r="E247" s="8">
+        <f>C246+2</f>
+        <v>45804</v>
+      </c>
+      <c r="F247" s="8">
+        <f>C246+3</f>
+        <v>45805</v>
+      </c>
+      <c r="G247" s="8">
+        <f>C246+4</f>
+        <v>45806</v>
+      </c>
+      <c r="H247" s="8">
+        <f>C246+5</f>
+        <v>45807</v>
+      </c>
+      <c r="I247" s="8">
+        <f>C246+6</f>
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A248" s="9"/>
+      <c r="C248" s="10" t="str">
+        <f t="shared" ref="C248:I248" si="33">UPPER(TEXT(C247, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D248" s="10" t="str">
+        <f t="shared" si="33"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E248" s="10" t="str">
+        <f t="shared" si="33"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F248" s="10" t="str">
+        <f t="shared" si="33"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G248" s="10" t="str">
+        <f t="shared" si="33"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H248" s="10" t="str">
+        <f t="shared" si="33"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I248" s="10" t="str">
+        <f t="shared" si="33"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" ht="76.5">
+      <c r="A249" s="11"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E249" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F249" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G249" s="24"/>
+      <c r="H249" s="24"/>
+      <c r="I249" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J249" s="24"/>
+      <c r="K249" s="12"/>
+      <c r="L249" s="12"/>
+      <c r="M249" s="12"/>
+      <c r="N249" s="12"/>
+    </row>
+    <row r="250" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="251" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:19" ht="30" customHeight="1">
+      <c r="A253" s="1"/>
+      <c r="B253" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C253" s="21">
+        <v>45809</v>
+      </c>
+      <c r="D253" s="22"/>
+      <c r="E253" s="25"/>
+      <c r="F253" s="26"/>
+      <c r="G253" s="26"/>
+      <c r="H253" s="26"/>
+      <c r="I253" s="26"/>
+      <c r="J253" s="25"/>
+      <c r="K253" s="26"/>
+      <c r="L253" s="26"/>
+      <c r="M253" s="26"/>
+      <c r="N253" s="26"/>
+      <c r="O253" s="25"/>
+      <c r="P253" s="26"/>
+      <c r="Q253" s="26"/>
+      <c r="R253" s="26"/>
+      <c r="S253" s="26"/>
+    </row>
+    <row r="254" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A254" s="7"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="8">
+        <f>C253</f>
+        <v>45809</v>
+      </c>
+      <c r="D254" s="8">
+        <f>C253+1</f>
+        <v>45810</v>
+      </c>
+      <c r="E254" s="8">
+        <f>C253+2</f>
+        <v>45811</v>
+      </c>
+      <c r="F254" s="8">
+        <f>C253+3</f>
+        <v>45812</v>
+      </c>
+      <c r="G254" s="8">
+        <f>C253+4</f>
+        <v>45813</v>
+      </c>
+      <c r="H254" s="8">
+        <f>C253+5</f>
+        <v>45814</v>
+      </c>
+      <c r="I254" s="8">
+        <f>C253+6</f>
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A255" s="9"/>
+      <c r="C255" s="10" t="str">
+        <f t="shared" ref="C255:I255" si="34">UPPER(TEXT(C254, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D255" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E255" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F255" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G255" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H255" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I255" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" ht="12.75">
+      <c r="A256" s="11"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="24"/>
+      <c r="E256" s="24"/>
+      <c r="F256" s="24"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J256" s="24"/>
+      <c r="K256" s="12"/>
+      <c r="L256" s="12"/>
+      <c r="M256" s="12"/>
+      <c r="N256" s="12"/>
+    </row>
+    <row r="257" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="258" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="259" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="260" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="261" spans="1:19" ht="30" customHeight="1">
+      <c r="A261" s="1"/>
+      <c r="B261" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C261" s="21">
+        <v>45816</v>
+      </c>
+      <c r="D261" s="22"/>
+      <c r="E261" s="25"/>
+      <c r="F261" s="26"/>
+      <c r="G261" s="26"/>
+      <c r="H261" s="26"/>
+      <c r="I261" s="26"/>
+      <c r="J261" s="25"/>
+      <c r="K261" s="26"/>
+      <c r="L261" s="26"/>
+      <c r="M261" s="26"/>
+      <c r="N261" s="26"/>
+      <c r="O261" s="25"/>
+      <c r="P261" s="26"/>
+      <c r="Q261" s="26"/>
+      <c r="R261" s="26"/>
+      <c r="S261" s="26"/>
+    </row>
+    <row r="262" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A262" s="7"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="8">
+        <f>C261</f>
+        <v>45816</v>
+      </c>
+      <c r="D262" s="8">
+        <f>C261+1</f>
+        <v>45817</v>
+      </c>
+      <c r="E262" s="8">
+        <f>C261+2</f>
+        <v>45818</v>
+      </c>
+      <c r="F262" s="8">
+        <f>C261+3</f>
+        <v>45819</v>
+      </c>
+      <c r="G262" s="8">
+        <f>C261+4</f>
+        <v>45820</v>
+      </c>
+      <c r="H262" s="8">
+        <f>C261+5</f>
+        <v>45821</v>
+      </c>
+      <c r="I262" s="8">
+        <f>C261+6</f>
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A263" s="9"/>
+      <c r="C263" s="10" t="str">
+        <f t="shared" ref="C263:I263" si="35">UPPER(TEXT(C262, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D263" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E263" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F263" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G263" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H263" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I263" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" ht="12.75">
+      <c r="A264" s="11"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" s="24"/>
+      <c r="E264" s="24"/>
+      <c r="F264" s="24"/>
+      <c r="G264" s="24"/>
+      <c r="H264" s="24"/>
+      <c r="I264" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J264" s="24"/>
+      <c r="K264" s="12"/>
+      <c r="L264" s="12"/>
+      <c r="M264" s="12"/>
+      <c r="N264" s="12"/>
+    </row>
+    <row r="265" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="266" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="267" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="268" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="269" spans="1:19" ht="30" customHeight="1">
+      <c r="A269" s="1"/>
+      <c r="B269" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C269" s="21">
+        <v>45823</v>
+      </c>
+      <c r="D269" s="22"/>
+      <c r="E269" s="25"/>
+      <c r="F269" s="26"/>
+      <c r="G269" s="26"/>
+      <c r="H269" s="26"/>
+      <c r="I269" s="26"/>
+      <c r="J269" s="25"/>
+      <c r="K269" s="26"/>
+      <c r="L269" s="26"/>
+      <c r="M269" s="26"/>
+      <c r="N269" s="26"/>
+      <c r="O269" s="25"/>
+      <c r="P269" s="26"/>
+      <c r="Q269" s="26"/>
+      <c r="R269" s="26"/>
+      <c r="S269" s="26"/>
+    </row>
+    <row r="270" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A270" s="7"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="8">
+        <f>C269</f>
+        <v>45823</v>
+      </c>
+      <c r="D270" s="8">
+        <f>C269+1</f>
+        <v>45824</v>
+      </c>
+      <c r="E270" s="8">
+        <f>C269+2</f>
+        <v>45825</v>
+      </c>
+      <c r="F270" s="8">
+        <f>C269+3</f>
+        <v>45826</v>
+      </c>
+      <c r="G270" s="8">
+        <f>C269+4</f>
+        <v>45827</v>
+      </c>
+      <c r="H270" s="8">
+        <f>C269+5</f>
+        <v>45828</v>
+      </c>
+      <c r="I270" s="8">
+        <f>C269+6</f>
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A271" s="9"/>
+      <c r="C271" s="10" t="str">
+        <f t="shared" ref="C271:I271" si="36">UPPER(TEXT(C270, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D271" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>MONDAY</v>
+      </c>
+      <c r="E271" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F271" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G271" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H271" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I271" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" ht="51">
+      <c r="A272" s="11"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E272" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F272" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G272" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H272" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I272" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J272" s="24"/>
+      <c r="K272" s="12"/>
+      <c r="L272" s="12"/>
+      <c r="M272" s="12"/>
+      <c r="N272" s="12"/>
+    </row>
+    <row r="273" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="274" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="275" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="276" spans="1:19" ht="30" customHeight="1">
+      <c r="A276" s="1"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="21">
+        <v>45963</v>
+      </c>
+      <c r="D276" s="22"/>
+      <c r="E276" s="25"/>
+      <c r="F276" s="26"/>
+      <c r="G276" s="26"/>
+      <c r="H276" s="26"/>
+      <c r="I276" s="26"/>
+      <c r="J276" s="25"/>
+      <c r="K276" s="26"/>
+      <c r="L276" s="26"/>
+      <c r="M276" s="26"/>
+      <c r="N276" s="26"/>
+      <c r="O276" s="25"/>
+      <c r="P276" s="26"/>
+      <c r="Q276" s="26"/>
+      <c r="R276" s="26"/>
+      <c r="S276" s="26"/>
+    </row>
+    <row r="277" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A277" s="7"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="8">
+        <f>C276</f>
+        <v>45963</v>
+      </c>
+      <c r="D277" s="8">
+        <f>C276+1</f>
+        <v>45964</v>
+      </c>
+      <c r="E277" s="8">
+        <f>C276+2</f>
+        <v>45965</v>
+      </c>
+      <c r="F277" s="8">
+        <f>C276+3</f>
+        <v>45966</v>
+      </c>
+      <c r="G277" s="8">
+        <f>C276+4</f>
+        <v>45967</v>
+      </c>
+      <c r="H277" s="8">
+        <f>C276+5</f>
+        <v>45968</v>
+      </c>
+      <c r="I277" s="8">
+        <f>C276+6</f>
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A278" s="9"/>
+      <c r="C278" s="10" t="str">
+        <f>UPPER(TEXT(C277, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D278" s="10" t="str">
+        <f t="shared" ref="C278:I278" si="37">UPPER(TEXT(D277, "DDDD"))</f>
+        <v>MONDAY</v>
+      </c>
+      <c r="E278" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F278" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G278" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H278" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I278" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" ht="76.5">
+      <c r="A279" s="11"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E279" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F279" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G279" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H279" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I279" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J279" s="24"/>
+      <c r="K279" s="12"/>
+      <c r="L279" s="12"/>
+      <c r="M279" s="12"/>
+      <c r="N279" s="12"/>
+    </row>
+    <row r="280" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="281" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="282" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="283" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="284" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="285" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="286" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="287" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="288" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="289" ht="15.75" customHeight="1"/>
     <row r="290" ht="15.75" customHeight="1"/>
     <row r="291" ht="15.75" customHeight="1"/>
@@ -5533,10 +6395,22 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="100">
+    <mergeCell ref="E276:I276"/>
+    <mergeCell ref="J276:N276"/>
+    <mergeCell ref="O276:S276"/>
+    <mergeCell ref="E246:I246"/>
+    <mergeCell ref="J246:N246"/>
+    <mergeCell ref="O246:S246"/>
     <mergeCell ref="E225:I225"/>
     <mergeCell ref="J225:N225"/>
     <mergeCell ref="O225:S225"/>
+    <mergeCell ref="E232:I232"/>
+    <mergeCell ref="J232:N232"/>
+    <mergeCell ref="O232:S232"/>
+    <mergeCell ref="E239:I239"/>
+    <mergeCell ref="J239:N239"/>
+    <mergeCell ref="O239:S239"/>
     <mergeCell ref="E210:I210"/>
     <mergeCell ref="J210:N210"/>
     <mergeCell ref="O210:S210"/>
@@ -5613,6 +6487,15 @@
     <mergeCell ref="J151:N151"/>
     <mergeCell ref="O151:S151"/>
     <mergeCell ref="E165:I165"/>
+    <mergeCell ref="E269:I269"/>
+    <mergeCell ref="J269:N269"/>
+    <mergeCell ref="O269:S269"/>
+    <mergeCell ref="E253:I253"/>
+    <mergeCell ref="J253:N253"/>
+    <mergeCell ref="O253:S253"/>
+    <mergeCell ref="E261:I261"/>
+    <mergeCell ref="J261:N261"/>
+    <mergeCell ref="O261:S261"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_TaskList/Lịch làm việc.xlsx
+++ b/5_TaskList/Lịch làm việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="190">
   <si>
     <t xml:space="preserve">Tuần: 01
 </t>
@@ -629,9 +629,6 @@
     <t>Sửa lại báo cáo LK14 bỏ thêm cột VAT</t>
   </si>
   <si>
-    <t>Sửa loại form API Request Tool của ezLoan khi chuối trả về quá lớn thì xuất thành một file.                  Nghỉ chiều</t>
-  </si>
-  <si>
     <t>Xem và tinh chỉnh lại code của form cảnh báo mã CK theo VCHS v0.1</t>
   </si>
   <si>
@@ -642,6 +639,21 @@
   </si>
   <si>
     <t xml:space="preserve">Nghỉ sáng.                                       Review lại code                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa lỗi hiện thông báo lỗi khi chuỗi trả về còn ngắn của form API Request Tool </t>
+  </si>
+  <si>
+    <t>Sửa lại form API Request Tool của ezLoan khi chuối trả về quá lớn thì xuất thành một file.                  Nghỉ chiều</t>
+  </si>
+  <si>
+    <t>Đổi lại cách suất file khi chuỗi trả về quá dài</t>
+  </si>
+  <si>
+    <t>Anh Nam Review lại code, sửa logic code</t>
+  </si>
+  <si>
+    <t>Tiềm hiêu qua về Kubernetes</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1127,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G284" sqref="G284"/>
+      <selection activeCell="M279" sqref="M279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -5619,7 +5631,7 @@
         <v>SUNDAY</v>
       </c>
       <c r="D278" s="10" t="str">
-        <f t="shared" ref="C278:I278" si="37">UPPER(TEXT(D277, "DDDD"))</f>
+        <f t="shared" ref="D278:I278" si="37">UPPER(TEXT(D277, "DDDD"))</f>
         <v>MONDAY</v>
       </c>
       <c r="E278" s="10" t="str">
@@ -5650,19 +5662,19 @@
         <v>2</v>
       </c>
       <c r="D279" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E279" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F279" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E279" s="24" t="s">
+      <c r="G279" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H279" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="F279" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="G279" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H279" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="I279" s="24" t="s">
         <v>155</v>
@@ -5676,10 +5688,122 @@
     <row r="280" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="281" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="282" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="283" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="284" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="285" spans="1:19" ht="15.75" customHeight="1"/>
-    <row r="286" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="283" spans="1:19" ht="30" customHeight="1">
+      <c r="A283" s="1"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="21">
+        <v>45970</v>
+      </c>
+      <c r="D283" s="22"/>
+      <c r="E283" s="25"/>
+      <c r="F283" s="26"/>
+      <c r="G283" s="26"/>
+      <c r="H283" s="26"/>
+      <c r="I283" s="26"/>
+      <c r="J283" s="25"/>
+      <c r="K283" s="26"/>
+      <c r="L283" s="26"/>
+      <c r="M283" s="26"/>
+      <c r="N283" s="26"/>
+      <c r="O283" s="25"/>
+      <c r="P283" s="26"/>
+      <c r="Q283" s="26"/>
+      <c r="R283" s="26"/>
+      <c r="S283" s="26"/>
+    </row>
+    <row r="284" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A284" s="7"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="8">
+        <f>C283</f>
+        <v>45970</v>
+      </c>
+      <c r="D284" s="8">
+        <f>C283+1</f>
+        <v>45971</v>
+      </c>
+      <c r="E284" s="8">
+        <f>C283+2</f>
+        <v>45972</v>
+      </c>
+      <c r="F284" s="8">
+        <f>C283+3</f>
+        <v>45973</v>
+      </c>
+      <c r="G284" s="8">
+        <f>C283+4</f>
+        <v>45974</v>
+      </c>
+      <c r="H284" s="8">
+        <f>C283+5</f>
+        <v>45975</v>
+      </c>
+      <c r="I284" s="8">
+        <f>C283+6</f>
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A285" s="9"/>
+      <c r="C285" s="10" t="str">
+        <f>UPPER(TEXT(C284, "DDDD"))</f>
+        <v>SUNDAY</v>
+      </c>
+      <c r="D285" s="10" t="str">
+        <f t="shared" ref="D285:I285" si="38">UPPER(TEXT(D284, "DDDD"))</f>
+        <v>MONDAY</v>
+      </c>
+      <c r="E285" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>TUESDAY</v>
+      </c>
+      <c r="F285" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>WEDNESDAY</v>
+      </c>
+      <c r="G285" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>THURSDAY</v>
+      </c>
+      <c r="H285" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>FRIDAY</v>
+      </c>
+      <c r="I285" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>SATURDAY</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" ht="51">
+      <c r="A286" s="11"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E286" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F286" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G286" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H286" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I286" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J286" s="24"/>
+      <c r="K286" s="12"/>
+      <c r="L286" s="12"/>
+      <c r="M286" s="12"/>
+      <c r="N286" s="12"/>
+    </row>
     <row r="287" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="288" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="289" ht="15.75" customHeight="1"/>
@@ -6395,42 +6519,50 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="E276:I276"/>
-    <mergeCell ref="J276:N276"/>
-    <mergeCell ref="O276:S276"/>
-    <mergeCell ref="E246:I246"/>
-    <mergeCell ref="J246:N246"/>
-    <mergeCell ref="O246:S246"/>
-    <mergeCell ref="E225:I225"/>
-    <mergeCell ref="J225:N225"/>
-    <mergeCell ref="O225:S225"/>
-    <mergeCell ref="E232:I232"/>
-    <mergeCell ref="J232:N232"/>
-    <mergeCell ref="O232:S232"/>
-    <mergeCell ref="E239:I239"/>
-    <mergeCell ref="J239:N239"/>
-    <mergeCell ref="O239:S239"/>
-    <mergeCell ref="E210:I210"/>
-    <mergeCell ref="J210:N210"/>
-    <mergeCell ref="O210:S210"/>
-    <mergeCell ref="E218:I218"/>
-    <mergeCell ref="J218:N218"/>
-    <mergeCell ref="O218:S218"/>
-    <mergeCell ref="E194:I194"/>
-    <mergeCell ref="J194:N194"/>
-    <mergeCell ref="O194:S194"/>
-    <mergeCell ref="E202:I202"/>
-    <mergeCell ref="J202:N202"/>
-    <mergeCell ref="O202:S202"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="O165:S165"/>
-    <mergeCell ref="E179:I179"/>
-    <mergeCell ref="J179:N179"/>
-    <mergeCell ref="O179:S179"/>
-    <mergeCell ref="E172:I172"/>
-    <mergeCell ref="J172:N172"/>
-    <mergeCell ref="O172:S172"/>
+  <mergeCells count="103">
+    <mergeCell ref="E283:I283"/>
+    <mergeCell ref="J283:N283"/>
+    <mergeCell ref="O283:S283"/>
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="J137:N137"/>
+    <mergeCell ref="O137:S137"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="E186:I186"/>
+    <mergeCell ref="J186:N186"/>
+    <mergeCell ref="O186:S186"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="O144:S144"/>
+    <mergeCell ref="E158:I158"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="O158:S158"/>
+    <mergeCell ref="E151:I151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="O151:S151"/>
+    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:S108"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:S83"/>
     <mergeCell ref="E116:I116"/>
     <mergeCell ref="J116:N116"/>
     <mergeCell ref="O116:S116"/>
@@ -6447,46 +6579,41 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="J59:N59"/>
     <mergeCell ref="O59:S59"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:S83"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="O99:S99"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:S108"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E137:I137"/>
-    <mergeCell ref="J137:N137"/>
-    <mergeCell ref="O137:S137"/>
-    <mergeCell ref="E144:I144"/>
-    <mergeCell ref="E186:I186"/>
-    <mergeCell ref="J186:N186"/>
-    <mergeCell ref="O186:S186"/>
-    <mergeCell ref="J144:N144"/>
-    <mergeCell ref="O144:S144"/>
-    <mergeCell ref="E158:I158"/>
-    <mergeCell ref="J158:N158"/>
-    <mergeCell ref="O158:S158"/>
-    <mergeCell ref="E151:I151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="O151:S151"/>
-    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="O165:S165"/>
+    <mergeCell ref="E179:I179"/>
+    <mergeCell ref="J179:N179"/>
+    <mergeCell ref="O179:S179"/>
+    <mergeCell ref="E172:I172"/>
+    <mergeCell ref="J172:N172"/>
+    <mergeCell ref="O172:S172"/>
+    <mergeCell ref="E194:I194"/>
+    <mergeCell ref="J194:N194"/>
+    <mergeCell ref="O194:S194"/>
+    <mergeCell ref="E202:I202"/>
+    <mergeCell ref="J202:N202"/>
+    <mergeCell ref="O202:S202"/>
+    <mergeCell ref="E239:I239"/>
+    <mergeCell ref="J239:N239"/>
+    <mergeCell ref="O239:S239"/>
+    <mergeCell ref="E210:I210"/>
+    <mergeCell ref="J210:N210"/>
+    <mergeCell ref="O210:S210"/>
+    <mergeCell ref="E218:I218"/>
+    <mergeCell ref="J218:N218"/>
+    <mergeCell ref="O218:S218"/>
+    <mergeCell ref="E225:I225"/>
+    <mergeCell ref="J225:N225"/>
+    <mergeCell ref="O225:S225"/>
+    <mergeCell ref="E232:I232"/>
+    <mergeCell ref="J232:N232"/>
+    <mergeCell ref="O232:S232"/>
+    <mergeCell ref="E276:I276"/>
+    <mergeCell ref="J276:N276"/>
+    <mergeCell ref="O276:S276"/>
+    <mergeCell ref="E246:I246"/>
+    <mergeCell ref="J246:N246"/>
+    <mergeCell ref="O246:S246"/>
     <mergeCell ref="E269:I269"/>
     <mergeCell ref="J269:N269"/>
     <mergeCell ref="O269:S269"/>
